--- a/Services.Tests/TestData/test.xlsx
+++ b/Services.Tests/TestData/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Equinor\spine-splinter\Services.Tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA0BFB3-AF87-4F74-91A1-471D794A01C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF99D95B-5757-4EE3-8EFB-D0D462B3A028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1080" windowWidth="18432" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheetName" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26914" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26417" uniqueCount="1570">
   <si>
     <t>BC2</t>
   </si>
@@ -5134,8 +5134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5478,8 +5478,8 @@
       <c r="B3" t="s">
         <v>1065</v>
       </c>
-      <c r="C3" t="s">
-        <v>498</v>
+      <c r="C3">
+        <v>1001</v>
       </c>
       <c r="D3" t="s">
         <v>498</v>
@@ -5642,8 +5642,8 @@
       <c r="B4" t="s">
         <v>1066</v>
       </c>
-      <c r="C4" t="s">
-        <v>498</v>
+      <c r="C4">
+        <v>1001</v>
       </c>
       <c r="D4" t="s">
         <v>498</v>
@@ -5806,8 +5806,8 @@
       <c r="B5" t="s">
         <v>1067</v>
       </c>
-      <c r="C5" t="s">
-        <v>498</v>
+      <c r="C5">
+        <v>1001</v>
       </c>
       <c r="D5" t="s">
         <v>498</v>
@@ -5970,8 +5970,8 @@
       <c r="B6" t="s">
         <v>1068</v>
       </c>
-      <c r="C6" t="s">
-        <v>498</v>
+      <c r="C6">
+        <v>1001</v>
       </c>
       <c r="D6" t="s">
         <v>498</v>
@@ -6134,8 +6134,8 @@
       <c r="B7" t="s">
         <v>1069</v>
       </c>
-      <c r="C7" t="s">
-        <v>498</v>
+      <c r="C7">
+        <v>1001</v>
       </c>
       <c r="D7" t="s">
         <v>498</v>
@@ -6298,8 +6298,8 @@
       <c r="B8" t="s">
         <v>1070</v>
       </c>
-      <c r="C8" t="s">
-        <v>498</v>
+      <c r="C8">
+        <v>1001</v>
       </c>
       <c r="D8" t="s">
         <v>498</v>
@@ -6462,8 +6462,8 @@
       <c r="B9" t="s">
         <v>1071</v>
       </c>
-      <c r="C9" t="s">
-        <v>498</v>
+      <c r="C9">
+        <v>1001</v>
       </c>
       <c r="D9" t="s">
         <v>498</v>
@@ -6626,8 +6626,8 @@
       <c r="B10" t="s">
         <v>1072</v>
       </c>
-      <c r="C10" t="s">
-        <v>498</v>
+      <c r="C10">
+        <v>1001</v>
       </c>
       <c r="D10" t="s">
         <v>498</v>
@@ -6790,8 +6790,8 @@
       <c r="B12" t="s">
         <v>1073</v>
       </c>
-      <c r="C12" t="s">
-        <v>498</v>
+      <c r="C12">
+        <v>1001</v>
       </c>
       <c r="D12" t="s">
         <v>498</v>
@@ -6954,8 +6954,8 @@
       <c r="B13" t="s">
         <v>1074</v>
       </c>
-      <c r="C13" t="s">
-        <v>498</v>
+      <c r="C13">
+        <v>1001</v>
       </c>
       <c r="D13" t="s">
         <v>498</v>
@@ -7118,8 +7118,8 @@
       <c r="B14" t="s">
         <v>1075</v>
       </c>
-      <c r="C14" t="s">
-        <v>498</v>
+      <c r="C14">
+        <v>1001</v>
       </c>
       <c r="D14" t="s">
         <v>498</v>
@@ -7282,8 +7282,8 @@
       <c r="B15" t="s">
         <v>1076</v>
       </c>
-      <c r="C15" t="s">
-        <v>498</v>
+      <c r="C15">
+        <v>1001</v>
       </c>
       <c r="D15" t="s">
         <v>498</v>
@@ -7446,8 +7446,8 @@
       <c r="B16" t="s">
         <v>1077</v>
       </c>
-      <c r="C16" t="s">
-        <v>498</v>
+      <c r="C16">
+        <v>1001</v>
       </c>
       <c r="D16" t="s">
         <v>498</v>
@@ -7610,8 +7610,8 @@
       <c r="B17" t="s">
         <v>1078</v>
       </c>
-      <c r="C17" t="s">
-        <v>498</v>
+      <c r="C17">
+        <v>1001</v>
       </c>
       <c r="D17" t="s">
         <v>498</v>
@@ -7774,8 +7774,8 @@
       <c r="B18" t="s">
         <v>1079</v>
       </c>
-      <c r="C18" t="s">
-        <v>498</v>
+      <c r="C18">
+        <v>1001</v>
       </c>
       <c r="D18" t="s">
         <v>498</v>
@@ -7938,8 +7938,8 @@
       <c r="B19" t="s">
         <v>1080</v>
       </c>
-      <c r="C19" t="s">
-        <v>498</v>
+      <c r="C19">
+        <v>1001</v>
       </c>
       <c r="D19" t="s">
         <v>498</v>
@@ -8102,8 +8102,8 @@
       <c r="B20" t="s">
         <v>1081</v>
       </c>
-      <c r="C20" t="s">
-        <v>498</v>
+      <c r="C20">
+        <v>1001</v>
       </c>
       <c r="D20" t="s">
         <v>498</v>
@@ -8266,8 +8266,8 @@
       <c r="B21" t="s">
         <v>1082</v>
       </c>
-      <c r="C21" t="s">
-        <v>498</v>
+      <c r="C21">
+        <v>1001</v>
       </c>
       <c r="D21" t="s">
         <v>498</v>
@@ -8430,8 +8430,8 @@
       <c r="B22" t="s">
         <v>1083</v>
       </c>
-      <c r="C22" t="s">
-        <v>498</v>
+      <c r="C22">
+        <v>1001</v>
       </c>
       <c r="D22" t="s">
         <v>498</v>
@@ -8594,8 +8594,8 @@
       <c r="B23" t="s">
         <v>1084</v>
       </c>
-      <c r="C23" t="s">
-        <v>498</v>
+      <c r="C23">
+        <v>1001</v>
       </c>
       <c r="D23" t="s">
         <v>498</v>
@@ -8758,8 +8758,8 @@
       <c r="B24" t="s">
         <v>1085</v>
       </c>
-      <c r="C24" t="s">
-        <v>498</v>
+      <c r="C24">
+        <v>1001</v>
       </c>
       <c r="D24" t="s">
         <v>498</v>
@@ -8922,8 +8922,8 @@
       <c r="B25" t="s">
         <v>1086</v>
       </c>
-      <c r="C25" t="s">
-        <v>498</v>
+      <c r="C25">
+        <v>1001</v>
       </c>
       <c r="D25" t="s">
         <v>498</v>
@@ -9086,8 +9086,8 @@
       <c r="B26" t="s">
         <v>1087</v>
       </c>
-      <c r="C26" t="s">
-        <v>498</v>
+      <c r="C26">
+        <v>1001</v>
       </c>
       <c r="D26" t="s">
         <v>498</v>
@@ -9250,8 +9250,8 @@
       <c r="B27" t="s">
         <v>1088</v>
       </c>
-      <c r="C27" t="s">
-        <v>498</v>
+      <c r="C27">
+        <v>1001</v>
       </c>
       <c r="D27" t="s">
         <v>498</v>
@@ -9414,8 +9414,8 @@
       <c r="B28" t="s">
         <v>1089</v>
       </c>
-      <c r="C28" t="s">
-        <v>498</v>
+      <c r="C28">
+        <v>1001</v>
       </c>
       <c r="D28" t="s">
         <v>498</v>
@@ -9578,8 +9578,8 @@
       <c r="B29" t="s">
         <v>1090</v>
       </c>
-      <c r="C29" t="s">
-        <v>498</v>
+      <c r="C29">
+        <v>1001</v>
       </c>
       <c r="D29" t="s">
         <v>498</v>
@@ -9742,8 +9742,8 @@
       <c r="B30" t="s">
         <v>1091</v>
       </c>
-      <c r="C30" t="s">
-        <v>498</v>
+      <c r="C30">
+        <v>1001</v>
       </c>
       <c r="D30" t="s">
         <v>498</v>
@@ -9906,8 +9906,8 @@
       <c r="B31" t="s">
         <v>1092</v>
       </c>
-      <c r="C31" t="s">
-        <v>498</v>
+      <c r="C31">
+        <v>1001</v>
       </c>
       <c r="D31" t="s">
         <v>498</v>
@@ -10070,8 +10070,8 @@
       <c r="B32" t="s">
         <v>1093</v>
       </c>
-      <c r="C32" t="s">
-        <v>498</v>
+      <c r="C32">
+        <v>1001</v>
       </c>
       <c r="D32" t="s">
         <v>498</v>
@@ -10234,8 +10234,8 @@
       <c r="B33" t="s">
         <v>1094</v>
       </c>
-      <c r="C33" t="s">
-        <v>498</v>
+      <c r="C33">
+        <v>1001</v>
       </c>
       <c r="D33" t="s">
         <v>498</v>
@@ -10398,8 +10398,8 @@
       <c r="B34" t="s">
         <v>1095</v>
       </c>
-      <c r="C34" t="s">
-        <v>498</v>
+      <c r="C34">
+        <v>1001</v>
       </c>
       <c r="D34" t="s">
         <v>498</v>
@@ -10562,8 +10562,8 @@
       <c r="B35" t="s">
         <v>1096</v>
       </c>
-      <c r="C35" t="s">
-        <v>498</v>
+      <c r="C35">
+        <v>1001</v>
       </c>
       <c r="D35" t="s">
         <v>498</v>
@@ -10726,8 +10726,8 @@
       <c r="B36" t="s">
         <v>1097</v>
       </c>
-      <c r="C36" t="s">
-        <v>498</v>
+      <c r="C36">
+        <v>1001</v>
       </c>
       <c r="D36" t="s">
         <v>498</v>
@@ -10890,8 +10890,8 @@
       <c r="B37" t="s">
         <v>1098</v>
       </c>
-      <c r="C37" t="s">
-        <v>498</v>
+      <c r="C37">
+        <v>1001</v>
       </c>
       <c r="D37" t="s">
         <v>498</v>
@@ -11054,8 +11054,8 @@
       <c r="B38" t="s">
         <v>1099</v>
       </c>
-      <c r="C38" t="s">
-        <v>498</v>
+      <c r="C38">
+        <v>1001</v>
       </c>
       <c r="D38" t="s">
         <v>498</v>
@@ -11218,8 +11218,8 @@
       <c r="B39" t="s">
         <v>1100</v>
       </c>
-      <c r="C39" t="s">
-        <v>498</v>
+      <c r="C39">
+        <v>1001</v>
       </c>
       <c r="D39" t="s">
         <v>498</v>
@@ -11382,8 +11382,8 @@
       <c r="B40" t="s">
         <v>1101</v>
       </c>
-      <c r="C40" t="s">
-        <v>498</v>
+      <c r="C40">
+        <v>1001</v>
       </c>
       <c r="D40" t="s">
         <v>498</v>
@@ -11546,8 +11546,8 @@
       <c r="B41" t="s">
         <v>1102</v>
       </c>
-      <c r="C41" t="s">
-        <v>498</v>
+      <c r="C41">
+        <v>1001</v>
       </c>
       <c r="D41" t="s">
         <v>498</v>
@@ -11710,8 +11710,8 @@
       <c r="B42" t="s">
         <v>1103</v>
       </c>
-      <c r="C42" t="s">
-        <v>498</v>
+      <c r="C42">
+        <v>1001</v>
       </c>
       <c r="D42" t="s">
         <v>498</v>
@@ -11874,8 +11874,8 @@
       <c r="B43" t="s">
         <v>1104</v>
       </c>
-      <c r="C43" t="s">
-        <v>498</v>
+      <c r="C43">
+        <v>1001</v>
       </c>
       <c r="D43" t="s">
         <v>498</v>
@@ -12038,8 +12038,8 @@
       <c r="B44" t="s">
         <v>1105</v>
       </c>
-      <c r="C44" t="s">
-        <v>498</v>
+      <c r="C44">
+        <v>1001</v>
       </c>
       <c r="D44" t="s">
         <v>498</v>
@@ -12202,8 +12202,8 @@
       <c r="B45" t="s">
         <v>1106</v>
       </c>
-      <c r="C45" t="s">
-        <v>498</v>
+      <c r="C45">
+        <v>1001</v>
       </c>
       <c r="D45" t="s">
         <v>498</v>
@@ -12366,8 +12366,8 @@
       <c r="B46" t="s">
         <v>1107</v>
       </c>
-      <c r="C46" t="s">
-        <v>498</v>
+      <c r="C46">
+        <v>1001</v>
       </c>
       <c r="D46" t="s">
         <v>498</v>
@@ -12530,8 +12530,8 @@
       <c r="B47" t="s">
         <v>1108</v>
       </c>
-      <c r="C47" t="s">
-        <v>498</v>
+      <c r="C47">
+        <v>1001</v>
       </c>
       <c r="D47" t="s">
         <v>498</v>
@@ -12694,8 +12694,8 @@
       <c r="B48" t="s">
         <v>1109</v>
       </c>
-      <c r="C48" t="s">
-        <v>498</v>
+      <c r="C48">
+        <v>1001</v>
       </c>
       <c r="D48" t="s">
         <v>498</v>
@@ -12858,8 +12858,8 @@
       <c r="B49" t="s">
         <v>1110</v>
       </c>
-      <c r="C49" t="s">
-        <v>498</v>
+      <c r="C49">
+        <v>1001</v>
       </c>
       <c r="D49" t="s">
         <v>498</v>
@@ -13022,8 +13022,8 @@
       <c r="B50" t="s">
         <v>1111</v>
       </c>
-      <c r="C50" t="s">
-        <v>498</v>
+      <c r="C50">
+        <v>1001</v>
       </c>
       <c r="D50" t="s">
         <v>498</v>
@@ -13186,8 +13186,8 @@
       <c r="B51" t="s">
         <v>1112</v>
       </c>
-      <c r="C51" t="s">
-        <v>498</v>
+      <c r="C51">
+        <v>1001</v>
       </c>
       <c r="D51" t="s">
         <v>498</v>
@@ -13350,8 +13350,8 @@
       <c r="B52" t="s">
         <v>1113</v>
       </c>
-      <c r="C52" t="s">
-        <v>498</v>
+      <c r="C52">
+        <v>1001</v>
       </c>
       <c r="D52" t="s">
         <v>498</v>
@@ -13514,8 +13514,8 @@
       <c r="B53" t="s">
         <v>1114</v>
       </c>
-      <c r="C53" t="s">
-        <v>498</v>
+      <c r="C53">
+        <v>1001</v>
       </c>
       <c r="D53" t="s">
         <v>498</v>
@@ -13678,8 +13678,8 @@
       <c r="B54" t="s">
         <v>1115</v>
       </c>
-      <c r="C54" t="s">
-        <v>498</v>
+      <c r="C54">
+        <v>1001</v>
       </c>
       <c r="D54" t="s">
         <v>498</v>
@@ -13842,8 +13842,8 @@
       <c r="B55" t="s">
         <v>1116</v>
       </c>
-      <c r="C55" t="s">
-        <v>498</v>
+      <c r="C55">
+        <v>1001</v>
       </c>
       <c r="D55" t="s">
         <v>498</v>
@@ -14006,8 +14006,8 @@
       <c r="B56" t="s">
         <v>1117</v>
       </c>
-      <c r="C56" t="s">
-        <v>498</v>
+      <c r="C56">
+        <v>1001</v>
       </c>
       <c r="D56" t="s">
         <v>498</v>
@@ -14170,8 +14170,8 @@
       <c r="B57" t="s">
         <v>1118</v>
       </c>
-      <c r="C57" t="s">
-        <v>498</v>
+      <c r="C57">
+        <v>1001</v>
       </c>
       <c r="D57" t="s">
         <v>498</v>
@@ -14334,8 +14334,8 @@
       <c r="B58" t="s">
         <v>1119</v>
       </c>
-      <c r="C58" t="s">
-        <v>498</v>
+      <c r="C58">
+        <v>1001</v>
       </c>
       <c r="D58" t="s">
         <v>498</v>
@@ -14498,8 +14498,8 @@
       <c r="B59" t="s">
         <v>1120</v>
       </c>
-      <c r="C59" t="s">
-        <v>498</v>
+      <c r="C59">
+        <v>1001</v>
       </c>
       <c r="D59" t="s">
         <v>498</v>
@@ -14662,8 +14662,8 @@
       <c r="B60" t="s">
         <v>1121</v>
       </c>
-      <c r="C60" t="s">
-        <v>498</v>
+      <c r="C60">
+        <v>1001</v>
       </c>
       <c r="D60" t="s">
         <v>498</v>
@@ -14826,8 +14826,8 @@
       <c r="B61" t="s">
         <v>1122</v>
       </c>
-      <c r="C61" t="s">
-        <v>498</v>
+      <c r="C61">
+        <v>1001</v>
       </c>
       <c r="D61" t="s">
         <v>498</v>
@@ -14990,8 +14990,8 @@
       <c r="B62" t="s">
         <v>1123</v>
       </c>
-      <c r="C62" t="s">
-        <v>498</v>
+      <c r="C62">
+        <v>1001</v>
       </c>
       <c r="D62" t="s">
         <v>498</v>
@@ -15154,8 +15154,8 @@
       <c r="B63" t="s">
         <v>1124</v>
       </c>
-      <c r="C63" t="s">
-        <v>498</v>
+      <c r="C63">
+        <v>1001</v>
       </c>
       <c r="D63" t="s">
         <v>498</v>
@@ -15318,8 +15318,8 @@
       <c r="B64" t="s">
         <v>1125</v>
       </c>
-      <c r="C64" t="s">
-        <v>498</v>
+      <c r="C64">
+        <v>1001</v>
       </c>
       <c r="D64" t="s">
         <v>498</v>
@@ -15482,8 +15482,8 @@
       <c r="B65" t="s">
         <v>1126</v>
       </c>
-      <c r="C65" t="s">
-        <v>498</v>
+      <c r="C65">
+        <v>1001</v>
       </c>
       <c r="D65" t="s">
         <v>498</v>
@@ -15646,8 +15646,8 @@
       <c r="B66" t="s">
         <v>1127</v>
       </c>
-      <c r="C66" t="s">
-        <v>498</v>
+      <c r="C66">
+        <v>1001</v>
       </c>
       <c r="D66" t="s">
         <v>498</v>
@@ -15810,8 +15810,8 @@
       <c r="B67" t="s">
         <v>1128</v>
       </c>
-      <c r="C67" t="s">
-        <v>498</v>
+      <c r="C67">
+        <v>1001</v>
       </c>
       <c r="D67" t="s">
         <v>498</v>
@@ -15974,8 +15974,8 @@
       <c r="B68" t="s">
         <v>1129</v>
       </c>
-      <c r="C68" t="s">
-        <v>498</v>
+      <c r="C68">
+        <v>1001</v>
       </c>
       <c r="D68" t="s">
         <v>498</v>
@@ -16138,8 +16138,8 @@
       <c r="B69" t="s">
         <v>1130</v>
       </c>
-      <c r="C69" t="s">
-        <v>498</v>
+      <c r="C69">
+        <v>1001</v>
       </c>
       <c r="D69" t="s">
         <v>498</v>
@@ -16302,8 +16302,8 @@
       <c r="B70" t="s">
         <v>1131</v>
       </c>
-      <c r="C70" t="s">
-        <v>498</v>
+      <c r="C70">
+        <v>1001</v>
       </c>
       <c r="D70" t="s">
         <v>498</v>
@@ -16466,8 +16466,8 @@
       <c r="B71" t="s">
         <v>1132</v>
       </c>
-      <c r="C71" t="s">
-        <v>498</v>
+      <c r="C71">
+        <v>1001</v>
       </c>
       <c r="D71" t="s">
         <v>498</v>
@@ -16630,8 +16630,8 @@
       <c r="B72" t="s">
         <v>1133</v>
       </c>
-      <c r="C72" t="s">
-        <v>498</v>
+      <c r="C72">
+        <v>1001</v>
       </c>
       <c r="D72" t="s">
         <v>498</v>
@@ -16794,8 +16794,8 @@
       <c r="B73" t="s">
         <v>1134</v>
       </c>
-      <c r="C73" t="s">
-        <v>498</v>
+      <c r="C73">
+        <v>1001</v>
       </c>
       <c r="D73" t="s">
         <v>498</v>
@@ -16958,8 +16958,8 @@
       <c r="B74" t="s">
         <v>1135</v>
       </c>
-      <c r="C74" t="s">
-        <v>498</v>
+      <c r="C74">
+        <v>1001</v>
       </c>
       <c r="D74" t="s">
         <v>498</v>
@@ -17122,8 +17122,8 @@
       <c r="B75" t="s">
         <v>1136</v>
       </c>
-      <c r="C75" t="s">
-        <v>498</v>
+      <c r="C75">
+        <v>1001</v>
       </c>
       <c r="D75" t="s">
         <v>498</v>
@@ -17286,8 +17286,8 @@
       <c r="B76" t="s">
         <v>1137</v>
       </c>
-      <c r="C76" t="s">
-        <v>498</v>
+      <c r="C76">
+        <v>1001</v>
       </c>
       <c r="D76" t="s">
         <v>498</v>
@@ -17450,8 +17450,8 @@
       <c r="B77" t="s">
         <v>1138</v>
       </c>
-      <c r="C77" t="s">
-        <v>498</v>
+      <c r="C77">
+        <v>1001</v>
       </c>
       <c r="D77" t="s">
         <v>498</v>
@@ -17614,8 +17614,8 @@
       <c r="B78" t="s">
         <v>1139</v>
       </c>
-      <c r="C78" t="s">
-        <v>498</v>
+      <c r="C78">
+        <v>1001</v>
       </c>
       <c r="D78" t="s">
         <v>498</v>
@@ -17778,8 +17778,8 @@
       <c r="B79" t="s">
         <v>1140</v>
       </c>
-      <c r="C79" t="s">
-        <v>498</v>
+      <c r="C79">
+        <v>1001</v>
       </c>
       <c r="D79" t="s">
         <v>498</v>
@@ -17942,8 +17942,8 @@
       <c r="B80" t="s">
         <v>1141</v>
       </c>
-      <c r="C80" t="s">
-        <v>498</v>
+      <c r="C80">
+        <v>1001</v>
       </c>
       <c r="D80" t="s">
         <v>498</v>
@@ -18106,8 +18106,8 @@
       <c r="B81" t="s">
         <v>1142</v>
       </c>
-      <c r="C81" t="s">
-        <v>498</v>
+      <c r="C81">
+        <v>1001</v>
       </c>
       <c r="D81" t="s">
         <v>498</v>
@@ -18270,8 +18270,8 @@
       <c r="B82" t="s">
         <v>1143</v>
       </c>
-      <c r="C82" t="s">
-        <v>498</v>
+      <c r="C82">
+        <v>1001</v>
       </c>
       <c r="D82" t="s">
         <v>498</v>
@@ -18434,8 +18434,8 @@
       <c r="B83" t="s">
         <v>1144</v>
       </c>
-      <c r="C83" t="s">
-        <v>498</v>
+      <c r="C83">
+        <v>1001</v>
       </c>
       <c r="D83" t="s">
         <v>498</v>
@@ -18598,8 +18598,8 @@
       <c r="B84" t="s">
         <v>1145</v>
       </c>
-      <c r="C84" t="s">
-        <v>498</v>
+      <c r="C84">
+        <v>1001</v>
       </c>
       <c r="D84" t="s">
         <v>498</v>
@@ -18762,8 +18762,8 @@
       <c r="B85" t="s">
         <v>1146</v>
       </c>
-      <c r="C85" t="s">
-        <v>498</v>
+      <c r="C85">
+        <v>1001</v>
       </c>
       <c r="D85" t="s">
         <v>498</v>
@@ -18926,8 +18926,8 @@
       <c r="B86" t="s">
         <v>1147</v>
       </c>
-      <c r="C86" t="s">
-        <v>498</v>
+      <c r="C86">
+        <v>1001</v>
       </c>
       <c r="D86" t="s">
         <v>498</v>
@@ -19090,8 +19090,8 @@
       <c r="B87" t="s">
         <v>1148</v>
       </c>
-      <c r="C87" t="s">
-        <v>498</v>
+      <c r="C87">
+        <v>1001</v>
       </c>
       <c r="D87" t="s">
         <v>498</v>
@@ -19254,8 +19254,8 @@
       <c r="B88" t="s">
         <v>1149</v>
       </c>
-      <c r="C88" t="s">
-        <v>498</v>
+      <c r="C88">
+        <v>1001</v>
       </c>
       <c r="D88" t="s">
         <v>498</v>
@@ -19418,8 +19418,8 @@
       <c r="B89" t="s">
         <v>1150</v>
       </c>
-      <c r="C89" t="s">
-        <v>498</v>
+      <c r="C89">
+        <v>1001</v>
       </c>
       <c r="D89" t="s">
         <v>498</v>
@@ -19582,8 +19582,8 @@
       <c r="B90" t="s">
         <v>1151</v>
       </c>
-      <c r="C90" t="s">
-        <v>498</v>
+      <c r="C90">
+        <v>1001</v>
       </c>
       <c r="D90" t="s">
         <v>498</v>
@@ -19746,8 +19746,8 @@
       <c r="B91" t="s">
         <v>1152</v>
       </c>
-      <c r="C91" t="s">
-        <v>498</v>
+      <c r="C91">
+        <v>1001</v>
       </c>
       <c r="D91" t="s">
         <v>498</v>
@@ -19910,8 +19910,8 @@
       <c r="B92" t="s">
         <v>1153</v>
       </c>
-      <c r="C92" t="s">
-        <v>498</v>
+      <c r="C92">
+        <v>1001</v>
       </c>
       <c r="D92" t="s">
         <v>498</v>
@@ -20074,8 +20074,8 @@
       <c r="B93" t="s">
         <v>1154</v>
       </c>
-      <c r="C93" t="s">
-        <v>498</v>
+      <c r="C93">
+        <v>1001</v>
       </c>
       <c r="D93" t="s">
         <v>498</v>
@@ -20238,8 +20238,8 @@
       <c r="B94" t="s">
         <v>1155</v>
       </c>
-      <c r="C94" t="s">
-        <v>498</v>
+      <c r="C94">
+        <v>1001</v>
       </c>
       <c r="D94" t="s">
         <v>498</v>
@@ -20402,8 +20402,8 @@
       <c r="B95" t="s">
         <v>1156</v>
       </c>
-      <c r="C95" t="s">
-        <v>498</v>
+      <c r="C95">
+        <v>1001</v>
       </c>
       <c r="D95" t="s">
         <v>498</v>
@@ -20566,8 +20566,8 @@
       <c r="B96" t="s">
         <v>1157</v>
       </c>
-      <c r="C96" t="s">
-        <v>498</v>
+      <c r="C96">
+        <v>1001</v>
       </c>
       <c r="D96" t="s">
         <v>498</v>
@@ -20730,8 +20730,8 @@
       <c r="B97" t="s">
         <v>1158</v>
       </c>
-      <c r="C97" t="s">
-        <v>498</v>
+      <c r="C97">
+        <v>1001</v>
       </c>
       <c r="D97" t="s">
         <v>498</v>
@@ -20894,8 +20894,8 @@
       <c r="B98" t="s">
         <v>1159</v>
       </c>
-      <c r="C98" t="s">
-        <v>498</v>
+      <c r="C98">
+        <v>1001</v>
       </c>
       <c r="D98" t="s">
         <v>498</v>
@@ -21058,8 +21058,8 @@
       <c r="B99" t="s">
         <v>1160</v>
       </c>
-      <c r="C99" t="s">
-        <v>498</v>
+      <c r="C99">
+        <v>1001</v>
       </c>
       <c r="D99" t="s">
         <v>498</v>
@@ -21222,8 +21222,8 @@
       <c r="B100" t="s">
         <v>1161</v>
       </c>
-      <c r="C100" t="s">
-        <v>498</v>
+      <c r="C100">
+        <v>1001</v>
       </c>
       <c r="D100" t="s">
         <v>498</v>
@@ -21386,8 +21386,8 @@
       <c r="B101" t="s">
         <v>1162</v>
       </c>
-      <c r="C101" t="s">
-        <v>498</v>
+      <c r="C101">
+        <v>1001</v>
       </c>
       <c r="D101" t="s">
         <v>498</v>
@@ -21550,8 +21550,8 @@
       <c r="B102" t="s">
         <v>1163</v>
       </c>
-      <c r="C102" t="s">
-        <v>498</v>
+      <c r="C102">
+        <v>1001</v>
       </c>
       <c r="D102" t="s">
         <v>498</v>
@@ -21714,8 +21714,8 @@
       <c r="B103" t="s">
         <v>1164</v>
       </c>
-      <c r="C103" t="s">
-        <v>498</v>
+      <c r="C103">
+        <v>1001</v>
       </c>
       <c r="D103" t="s">
         <v>498</v>
@@ -21878,8 +21878,8 @@
       <c r="B104" t="s">
         <v>1165</v>
       </c>
-      <c r="C104" t="s">
-        <v>498</v>
+      <c r="C104">
+        <v>1001</v>
       </c>
       <c r="D104" t="s">
         <v>498</v>
@@ -22042,8 +22042,8 @@
       <c r="B105" t="s">
         <v>1166</v>
       </c>
-      <c r="C105" t="s">
-        <v>498</v>
+      <c r="C105">
+        <v>1001</v>
       </c>
       <c r="D105" t="s">
         <v>498</v>
@@ -22206,8 +22206,8 @@
       <c r="B106" t="s">
         <v>1167</v>
       </c>
-      <c r="C106" t="s">
-        <v>498</v>
+      <c r="C106">
+        <v>1001</v>
       </c>
       <c r="D106" t="s">
         <v>498</v>
@@ -22370,8 +22370,8 @@
       <c r="B107" t="s">
         <v>1168</v>
       </c>
-      <c r="C107" t="s">
-        <v>498</v>
+      <c r="C107">
+        <v>1001</v>
       </c>
       <c r="D107" t="s">
         <v>498</v>
@@ -22534,8 +22534,8 @@
       <c r="B108" t="s">
         <v>1169</v>
       </c>
-      <c r="C108" t="s">
-        <v>498</v>
+      <c r="C108">
+        <v>1001</v>
       </c>
       <c r="D108" t="s">
         <v>498</v>
@@ -22698,8 +22698,8 @@
       <c r="B109" t="s">
         <v>1170</v>
       </c>
-      <c r="C109" t="s">
-        <v>498</v>
+      <c r="C109">
+        <v>1001</v>
       </c>
       <c r="D109" t="s">
         <v>498</v>
@@ -22862,8 +22862,8 @@
       <c r="B110" t="s">
         <v>1171</v>
       </c>
-      <c r="C110" t="s">
-        <v>498</v>
+      <c r="C110">
+        <v>1001</v>
       </c>
       <c r="D110" t="s">
         <v>498</v>
@@ -23026,8 +23026,8 @@
       <c r="B111" t="s">
         <v>1172</v>
       </c>
-      <c r="C111" t="s">
-        <v>498</v>
+      <c r="C111">
+        <v>1001</v>
       </c>
       <c r="D111" t="s">
         <v>498</v>
@@ -23190,8 +23190,8 @@
       <c r="B112" t="s">
         <v>1173</v>
       </c>
-      <c r="C112" t="s">
-        <v>498</v>
+      <c r="C112">
+        <v>1001</v>
       </c>
       <c r="D112" t="s">
         <v>498</v>
@@ -23354,8 +23354,8 @@
       <c r="B113" t="s">
         <v>1174</v>
       </c>
-      <c r="C113" t="s">
-        <v>498</v>
+      <c r="C113">
+        <v>1001</v>
       </c>
       <c r="D113" t="s">
         <v>498</v>
@@ -23518,8 +23518,8 @@
       <c r="B114" t="s">
         <v>1175</v>
       </c>
-      <c r="C114" t="s">
-        <v>498</v>
+      <c r="C114">
+        <v>1001</v>
       </c>
       <c r="D114" t="s">
         <v>498</v>
@@ -23682,8 +23682,8 @@
       <c r="B115" t="s">
         <v>1176</v>
       </c>
-      <c r="C115" t="s">
-        <v>498</v>
+      <c r="C115">
+        <v>1001</v>
       </c>
       <c r="D115" t="s">
         <v>498</v>
@@ -23846,8 +23846,8 @@
       <c r="B116" t="s">
         <v>1177</v>
       </c>
-      <c r="C116" t="s">
-        <v>498</v>
+      <c r="C116">
+        <v>1001</v>
       </c>
       <c r="D116" t="s">
         <v>498</v>
@@ -24010,8 +24010,8 @@
       <c r="B117" t="s">
         <v>1178</v>
       </c>
-      <c r="C117" t="s">
-        <v>498</v>
+      <c r="C117">
+        <v>1001</v>
       </c>
       <c r="D117" t="s">
         <v>498</v>
@@ -24174,8 +24174,8 @@
       <c r="B118" t="s">
         <v>1179</v>
       </c>
-      <c r="C118" t="s">
-        <v>498</v>
+      <c r="C118">
+        <v>1001</v>
       </c>
       <c r="D118" t="s">
         <v>498</v>
@@ -24338,8 +24338,8 @@
       <c r="B119" t="s">
         <v>1180</v>
       </c>
-      <c r="C119" t="s">
-        <v>498</v>
+      <c r="C119">
+        <v>1001</v>
       </c>
       <c r="D119" t="s">
         <v>498</v>
@@ -24502,8 +24502,8 @@
       <c r="B120" t="s">
         <v>1181</v>
       </c>
-      <c r="C120" t="s">
-        <v>498</v>
+      <c r="C120">
+        <v>1001</v>
       </c>
       <c r="D120" t="s">
         <v>498</v>
@@ -24666,8 +24666,8 @@
       <c r="B121" t="s">
         <v>1182</v>
       </c>
-      <c r="C121" t="s">
-        <v>498</v>
+      <c r="C121">
+        <v>1001</v>
       </c>
       <c r="D121" t="s">
         <v>498</v>
@@ -24830,8 +24830,8 @@
       <c r="B122" t="s">
         <v>1183</v>
       </c>
-      <c r="C122" t="s">
-        <v>498</v>
+      <c r="C122">
+        <v>1001</v>
       </c>
       <c r="D122" t="s">
         <v>498</v>
@@ -24994,8 +24994,8 @@
       <c r="B123" t="s">
         <v>1184</v>
       </c>
-      <c r="C123" t="s">
-        <v>498</v>
+      <c r="C123">
+        <v>1001</v>
       </c>
       <c r="D123" t="s">
         <v>498</v>
@@ -25158,8 +25158,8 @@
       <c r="B124" t="s">
         <v>1185</v>
       </c>
-      <c r="C124" t="s">
-        <v>498</v>
+      <c r="C124">
+        <v>1001</v>
       </c>
       <c r="D124" t="s">
         <v>498</v>
@@ -25322,8 +25322,8 @@
       <c r="B125" t="s">
         <v>1186</v>
       </c>
-      <c r="C125" t="s">
-        <v>498</v>
+      <c r="C125">
+        <v>1001</v>
       </c>
       <c r="D125" t="s">
         <v>498</v>
@@ -25486,8 +25486,8 @@
       <c r="B126" t="s">
         <v>1187</v>
       </c>
-      <c r="C126" t="s">
-        <v>498</v>
+      <c r="C126">
+        <v>1001</v>
       </c>
       <c r="D126" t="s">
         <v>498</v>
@@ -25650,8 +25650,8 @@
       <c r="B127" t="s">
         <v>1188</v>
       </c>
-      <c r="C127" t="s">
-        <v>498</v>
+      <c r="C127">
+        <v>1001</v>
       </c>
       <c r="D127" t="s">
         <v>498</v>
@@ -25814,8 +25814,8 @@
       <c r="B128" t="s">
         <v>1189</v>
       </c>
-      <c r="C128" t="s">
-        <v>498</v>
+      <c r="C128">
+        <v>1001</v>
       </c>
       <c r="D128" t="s">
         <v>498</v>
@@ -25978,8 +25978,8 @@
       <c r="B129" t="s">
         <v>1190</v>
       </c>
-      <c r="C129" t="s">
-        <v>498</v>
+      <c r="C129">
+        <v>1001</v>
       </c>
       <c r="D129" t="s">
         <v>498</v>
@@ -26142,8 +26142,8 @@
       <c r="B130" t="s">
         <v>1191</v>
       </c>
-      <c r="C130" t="s">
-        <v>498</v>
+      <c r="C130">
+        <v>1001</v>
       </c>
       <c r="D130" t="s">
         <v>498</v>
@@ -26306,8 +26306,8 @@
       <c r="B131" t="s">
         <v>1192</v>
       </c>
-      <c r="C131" t="s">
-        <v>498</v>
+      <c r="C131">
+        <v>1001</v>
       </c>
       <c r="D131" t="s">
         <v>498</v>
@@ -26470,8 +26470,8 @@
       <c r="B132" t="s">
         <v>1193</v>
       </c>
-      <c r="C132" t="s">
-        <v>498</v>
+      <c r="C132">
+        <v>1001</v>
       </c>
       <c r="D132" t="s">
         <v>498</v>
@@ -26634,8 +26634,8 @@
       <c r="B133" t="s">
         <v>1194</v>
       </c>
-      <c r="C133" t="s">
-        <v>498</v>
+      <c r="C133">
+        <v>1001</v>
       </c>
       <c r="D133" t="s">
         <v>498</v>
@@ -26798,8 +26798,8 @@
       <c r="B134" t="s">
         <v>1195</v>
       </c>
-      <c r="C134" t="s">
-        <v>498</v>
+      <c r="C134">
+        <v>1001</v>
       </c>
       <c r="D134" t="s">
         <v>498</v>
@@ -26962,8 +26962,8 @@
       <c r="B135" t="s">
         <v>1196</v>
       </c>
-      <c r="C135" t="s">
-        <v>498</v>
+      <c r="C135">
+        <v>1001</v>
       </c>
       <c r="D135" t="s">
         <v>498</v>
@@ -27126,8 +27126,8 @@
       <c r="B136" t="s">
         <v>1197</v>
       </c>
-      <c r="C136" t="s">
-        <v>498</v>
+      <c r="C136">
+        <v>1001</v>
       </c>
       <c r="D136" t="s">
         <v>498</v>
@@ -27290,8 +27290,8 @@
       <c r="B137" t="s">
         <v>1198</v>
       </c>
-      <c r="C137" t="s">
-        <v>498</v>
+      <c r="C137">
+        <v>1001</v>
       </c>
       <c r="D137" t="s">
         <v>498</v>
@@ -27454,8 +27454,8 @@
       <c r="B138" t="s">
         <v>1199</v>
       </c>
-      <c r="C138" t="s">
-        <v>498</v>
+      <c r="C138">
+        <v>1001</v>
       </c>
       <c r="D138" t="s">
         <v>498</v>
@@ -27618,8 +27618,8 @@
       <c r="B139" t="s">
         <v>1200</v>
       </c>
-      <c r="C139" t="s">
-        <v>498</v>
+      <c r="C139">
+        <v>1001</v>
       </c>
       <c r="D139" t="s">
         <v>498</v>
@@ -27782,8 +27782,8 @@
       <c r="B140" t="s">
         <v>1201</v>
       </c>
-      <c r="C140" t="s">
-        <v>498</v>
+      <c r="C140">
+        <v>1001</v>
       </c>
       <c r="D140" t="s">
         <v>498</v>
@@ -27946,8 +27946,8 @@
       <c r="B141" t="s">
         <v>1202</v>
       </c>
-      <c r="C141" t="s">
-        <v>498</v>
+      <c r="C141">
+        <v>1001</v>
       </c>
       <c r="D141" t="s">
         <v>498</v>
@@ -28110,8 +28110,8 @@
       <c r="B142" t="s">
         <v>1203</v>
       </c>
-      <c r="C142" t="s">
-        <v>498</v>
+      <c r="C142">
+        <v>1001</v>
       </c>
       <c r="D142" t="s">
         <v>498</v>
@@ -28274,8 +28274,8 @@
       <c r="B143" t="s">
         <v>1204</v>
       </c>
-      <c r="C143" t="s">
-        <v>498</v>
+      <c r="C143">
+        <v>1001</v>
       </c>
       <c r="D143" t="s">
         <v>498</v>
@@ -28438,8 +28438,8 @@
       <c r="B144" t="s">
         <v>1205</v>
       </c>
-      <c r="C144" t="s">
-        <v>498</v>
+      <c r="C144">
+        <v>1001</v>
       </c>
       <c r="D144" t="s">
         <v>498</v>
@@ -28602,8 +28602,8 @@
       <c r="B145" t="s">
         <v>1206</v>
       </c>
-      <c r="C145" t="s">
-        <v>498</v>
+      <c r="C145">
+        <v>1001</v>
       </c>
       <c r="D145" t="s">
         <v>498</v>
@@ -28766,8 +28766,8 @@
       <c r="B146" t="s">
         <v>1207</v>
       </c>
-      <c r="C146" t="s">
-        <v>498</v>
+      <c r="C146">
+        <v>1001</v>
       </c>
       <c r="D146" t="s">
         <v>498</v>
@@ -28930,8 +28930,8 @@
       <c r="B147" t="s">
         <v>1208</v>
       </c>
-      <c r="C147" t="s">
-        <v>498</v>
+      <c r="C147">
+        <v>1001</v>
       </c>
       <c r="D147" t="s">
         <v>498</v>
@@ -29094,8 +29094,8 @@
       <c r="B148" t="s">
         <v>1209</v>
       </c>
-      <c r="C148" t="s">
-        <v>498</v>
+      <c r="C148">
+        <v>1001</v>
       </c>
       <c r="D148" t="s">
         <v>498</v>
@@ -29258,8 +29258,8 @@
       <c r="B149" t="s">
         <v>1210</v>
       </c>
-      <c r="C149" t="s">
-        <v>498</v>
+      <c r="C149">
+        <v>1001</v>
       </c>
       <c r="D149" t="s">
         <v>498</v>
@@ -29422,8 +29422,8 @@
       <c r="B150" t="s">
         <v>1211</v>
       </c>
-      <c r="C150" t="s">
-        <v>498</v>
+      <c r="C150">
+        <v>1001</v>
       </c>
       <c r="D150" t="s">
         <v>498</v>
@@ -29586,8 +29586,8 @@
       <c r="B151" t="s">
         <v>1212</v>
       </c>
-      <c r="C151" t="s">
-        <v>498</v>
+      <c r="C151">
+        <v>1001</v>
       </c>
       <c r="D151" t="s">
         <v>498</v>
@@ -29750,8 +29750,8 @@
       <c r="B152" t="s">
         <v>1213</v>
       </c>
-      <c r="C152" t="s">
-        <v>498</v>
+      <c r="C152">
+        <v>1001</v>
       </c>
       <c r="D152" t="s">
         <v>498</v>
@@ -29914,8 +29914,8 @@
       <c r="B153" t="s">
         <v>1214</v>
       </c>
-      <c r="C153" t="s">
-        <v>498</v>
+      <c r="C153">
+        <v>1001</v>
       </c>
       <c r="D153" t="s">
         <v>498</v>
@@ -30078,8 +30078,8 @@
       <c r="B154" t="s">
         <v>1215</v>
       </c>
-      <c r="C154" t="s">
-        <v>498</v>
+      <c r="C154">
+        <v>1001</v>
       </c>
       <c r="D154" t="s">
         <v>498</v>
@@ -30242,8 +30242,8 @@
       <c r="B155" t="s">
         <v>1216</v>
       </c>
-      <c r="C155" t="s">
-        <v>498</v>
+      <c r="C155">
+        <v>1001</v>
       </c>
       <c r="D155" t="s">
         <v>498</v>
@@ -30406,8 +30406,8 @@
       <c r="B156" t="s">
         <v>1217</v>
       </c>
-      <c r="C156" t="s">
-        <v>498</v>
+      <c r="C156">
+        <v>1001</v>
       </c>
       <c r="D156" t="s">
         <v>498</v>
@@ -30570,8 +30570,8 @@
       <c r="B157" t="s">
         <v>1218</v>
       </c>
-      <c r="C157" t="s">
-        <v>498</v>
+      <c r="C157">
+        <v>1001</v>
       </c>
       <c r="D157" t="s">
         <v>498</v>
@@ -30734,8 +30734,8 @@
       <c r="B158" t="s">
         <v>1219</v>
       </c>
-      <c r="C158" t="s">
-        <v>498</v>
+      <c r="C158">
+        <v>1001</v>
       </c>
       <c r="D158" t="s">
         <v>498</v>
@@ -30898,8 +30898,8 @@
       <c r="B159" t="s">
         <v>1220</v>
       </c>
-      <c r="C159" t="s">
-        <v>498</v>
+      <c r="C159">
+        <v>1001</v>
       </c>
       <c r="D159" t="s">
         <v>498</v>
@@ -31062,8 +31062,8 @@
       <c r="B160" t="s">
         <v>1221</v>
       </c>
-      <c r="C160" t="s">
-        <v>498</v>
+      <c r="C160">
+        <v>1001</v>
       </c>
       <c r="D160" t="s">
         <v>498</v>
@@ -31226,8 +31226,8 @@
       <c r="B161" t="s">
         <v>1222</v>
       </c>
-      <c r="C161" t="s">
-        <v>498</v>
+      <c r="C161">
+        <v>1001</v>
       </c>
       <c r="D161" t="s">
         <v>498</v>
@@ -31390,8 +31390,8 @@
       <c r="B162" t="s">
         <v>1223</v>
       </c>
-      <c r="C162" t="s">
-        <v>498</v>
+      <c r="C162">
+        <v>1001</v>
       </c>
       <c r="D162" t="s">
         <v>498</v>
@@ -31554,8 +31554,8 @@
       <c r="B163" t="s">
         <v>1224</v>
       </c>
-      <c r="C163" t="s">
-        <v>498</v>
+      <c r="C163">
+        <v>1001</v>
       </c>
       <c r="D163" t="s">
         <v>498</v>
@@ -31718,8 +31718,8 @@
       <c r="B164" t="s">
         <v>1225</v>
       </c>
-      <c r="C164" t="s">
-        <v>498</v>
+      <c r="C164">
+        <v>1001</v>
       </c>
       <c r="D164" t="s">
         <v>498</v>
@@ -31882,8 +31882,8 @@
       <c r="B165" t="s">
         <v>1226</v>
       </c>
-      <c r="C165" t="s">
-        <v>498</v>
+      <c r="C165">
+        <v>1001</v>
       </c>
       <c r="D165" t="s">
         <v>498</v>
@@ -32046,8 +32046,8 @@
       <c r="B166" t="s">
         <v>1227</v>
       </c>
-      <c r="C166" t="s">
-        <v>498</v>
+      <c r="C166">
+        <v>1001</v>
       </c>
       <c r="D166" t="s">
         <v>498</v>
@@ -32210,8 +32210,8 @@
       <c r="B167" t="s">
         <v>1228</v>
       </c>
-      <c r="C167" t="s">
-        <v>498</v>
+      <c r="C167">
+        <v>1001</v>
       </c>
       <c r="D167" t="s">
         <v>498</v>
@@ -32374,8 +32374,8 @@
       <c r="B168" t="s">
         <v>1229</v>
       </c>
-      <c r="C168" t="s">
-        <v>498</v>
+      <c r="C168">
+        <v>1001</v>
       </c>
       <c r="D168" t="s">
         <v>498</v>
@@ -32538,8 +32538,8 @@
       <c r="B169" t="s">
         <v>1230</v>
       </c>
-      <c r="C169" t="s">
-        <v>498</v>
+      <c r="C169">
+        <v>1001</v>
       </c>
       <c r="D169" t="s">
         <v>498</v>
@@ -32702,8 +32702,8 @@
       <c r="B170" t="s">
         <v>1231</v>
       </c>
-      <c r="C170" t="s">
-        <v>498</v>
+      <c r="C170">
+        <v>1001</v>
       </c>
       <c r="D170" t="s">
         <v>498</v>
@@ -32866,8 +32866,8 @@
       <c r="B171" t="s">
         <v>1232</v>
       </c>
-      <c r="C171" t="s">
-        <v>498</v>
+      <c r="C171">
+        <v>1001</v>
       </c>
       <c r="D171" t="s">
         <v>498</v>
@@ -33030,8 +33030,8 @@
       <c r="B172" t="s">
         <v>1233</v>
       </c>
-      <c r="C172" t="s">
-        <v>498</v>
+      <c r="C172">
+        <v>1001</v>
       </c>
       <c r="D172" t="s">
         <v>498</v>
@@ -33194,8 +33194,8 @@
       <c r="B173" t="s">
         <v>1234</v>
       </c>
-      <c r="C173" t="s">
-        <v>498</v>
+      <c r="C173">
+        <v>1001</v>
       </c>
       <c r="D173" t="s">
         <v>498</v>
@@ -33358,8 +33358,8 @@
       <c r="B174" t="s">
         <v>1235</v>
       </c>
-      <c r="C174" t="s">
-        <v>498</v>
+      <c r="C174">
+        <v>1001</v>
       </c>
       <c r="D174" t="s">
         <v>498</v>
@@ -33522,8 +33522,8 @@
       <c r="B175" t="s">
         <v>1236</v>
       </c>
-      <c r="C175" t="s">
-        <v>498</v>
+      <c r="C175">
+        <v>1001</v>
       </c>
       <c r="D175" t="s">
         <v>498</v>
@@ -33686,8 +33686,8 @@
       <c r="B176" t="s">
         <v>1237</v>
       </c>
-      <c r="C176" t="s">
-        <v>498</v>
+      <c r="C176">
+        <v>1001</v>
       </c>
       <c r="D176" t="s">
         <v>498</v>
@@ -33850,8 +33850,8 @@
       <c r="B177" t="s">
         <v>1238</v>
       </c>
-      <c r="C177" t="s">
-        <v>498</v>
+      <c r="C177">
+        <v>1001</v>
       </c>
       <c r="D177" t="s">
         <v>498</v>
@@ -34014,8 +34014,8 @@
       <c r="B178" t="s">
         <v>1239</v>
       </c>
-      <c r="C178" t="s">
-        <v>498</v>
+      <c r="C178">
+        <v>1001</v>
       </c>
       <c r="D178" t="s">
         <v>498</v>
@@ -34178,8 +34178,8 @@
       <c r="B179" t="s">
         <v>1240</v>
       </c>
-      <c r="C179" t="s">
-        <v>498</v>
+      <c r="C179">
+        <v>1001</v>
       </c>
       <c r="D179" t="s">
         <v>498</v>
@@ -34342,8 +34342,8 @@
       <c r="B180" t="s">
         <v>1241</v>
       </c>
-      <c r="C180" t="s">
-        <v>498</v>
+      <c r="C180">
+        <v>1001</v>
       </c>
       <c r="D180" t="s">
         <v>498</v>
@@ -34506,8 +34506,8 @@
       <c r="B181" t="s">
         <v>1242</v>
       </c>
-      <c r="C181" t="s">
-        <v>498</v>
+      <c r="C181">
+        <v>1001</v>
       </c>
       <c r="D181" t="s">
         <v>498</v>
@@ -34670,8 +34670,8 @@
       <c r="B182" t="s">
         <v>1243</v>
       </c>
-      <c r="C182" t="s">
-        <v>498</v>
+      <c r="C182">
+        <v>1001</v>
       </c>
       <c r="D182" t="s">
         <v>498</v>
@@ -34834,8 +34834,8 @@
       <c r="B183" t="s">
         <v>1244</v>
       </c>
-      <c r="C183" t="s">
-        <v>498</v>
+      <c r="C183">
+        <v>1001</v>
       </c>
       <c r="D183" t="s">
         <v>498</v>
@@ -34998,8 +34998,8 @@
       <c r="B184" t="s">
         <v>1245</v>
       </c>
-      <c r="C184" t="s">
-        <v>498</v>
+      <c r="C184">
+        <v>1001</v>
       </c>
       <c r="D184" t="s">
         <v>498</v>
@@ -35162,8 +35162,8 @@
       <c r="B185" t="s">
         <v>1246</v>
       </c>
-      <c r="C185" t="s">
-        <v>498</v>
+      <c r="C185">
+        <v>1001</v>
       </c>
       <c r="D185" t="s">
         <v>498</v>
@@ -35326,8 +35326,8 @@
       <c r="B186" t="s">
         <v>1247</v>
       </c>
-      <c r="C186" t="s">
-        <v>498</v>
+      <c r="C186">
+        <v>1001</v>
       </c>
       <c r="D186" t="s">
         <v>498</v>
@@ -35490,8 +35490,8 @@
       <c r="B187" t="s">
         <v>1248</v>
       </c>
-      <c r="C187" t="s">
-        <v>498</v>
+      <c r="C187">
+        <v>1001</v>
       </c>
       <c r="D187" t="s">
         <v>498</v>
@@ -35654,8 +35654,8 @@
       <c r="B188" t="s">
         <v>1249</v>
       </c>
-      <c r="C188" t="s">
-        <v>498</v>
+      <c r="C188">
+        <v>1001</v>
       </c>
       <c r="D188" t="s">
         <v>498</v>
@@ -35818,8 +35818,8 @@
       <c r="B189" t="s">
         <v>1250</v>
       </c>
-      <c r="C189" t="s">
-        <v>498</v>
+      <c r="C189">
+        <v>1001</v>
       </c>
       <c r="D189" t="s">
         <v>498</v>
@@ -35982,8 +35982,8 @@
       <c r="B190" t="s">
         <v>1251</v>
       </c>
-      <c r="C190" t="s">
-        <v>498</v>
+      <c r="C190">
+        <v>1001</v>
       </c>
       <c r="D190" t="s">
         <v>498</v>
@@ -36146,8 +36146,8 @@
       <c r="B191" t="s">
         <v>1252</v>
       </c>
-      <c r="C191" t="s">
-        <v>498</v>
+      <c r="C191">
+        <v>1001</v>
       </c>
       <c r="D191" t="s">
         <v>498</v>
@@ -36310,8 +36310,8 @@
       <c r="B192" t="s">
         <v>1253</v>
       </c>
-      <c r="C192" t="s">
-        <v>498</v>
+      <c r="C192">
+        <v>1001</v>
       </c>
       <c r="D192" t="s">
         <v>498</v>
@@ -36474,8 +36474,8 @@
       <c r="B193" t="s">
         <v>1254</v>
       </c>
-      <c r="C193" t="s">
-        <v>498</v>
+      <c r="C193">
+        <v>1001</v>
       </c>
       <c r="D193" t="s">
         <v>498</v>
@@ -36638,8 +36638,8 @@
       <c r="B194" t="s">
         <v>1255</v>
       </c>
-      <c r="C194" t="s">
-        <v>498</v>
+      <c r="C194">
+        <v>1001</v>
       </c>
       <c r="D194" t="s">
         <v>498</v>
@@ -36802,8 +36802,8 @@
       <c r="B195" t="s">
         <v>1256</v>
       </c>
-      <c r="C195" t="s">
-        <v>498</v>
+      <c r="C195">
+        <v>1001</v>
       </c>
       <c r="D195" t="s">
         <v>498</v>
@@ -36966,8 +36966,8 @@
       <c r="B196" t="s">
         <v>1257</v>
       </c>
-      <c r="C196" t="s">
-        <v>498</v>
+      <c r="C196">
+        <v>1001</v>
       </c>
       <c r="D196" t="s">
         <v>498</v>
@@ -37130,8 +37130,8 @@
       <c r="B197" t="s">
         <v>1258</v>
       </c>
-      <c r="C197" t="s">
-        <v>498</v>
+      <c r="C197">
+        <v>1001</v>
       </c>
       <c r="D197" t="s">
         <v>498</v>
@@ -37294,8 +37294,8 @@
       <c r="B198" t="s">
         <v>1259</v>
       </c>
-      <c r="C198" t="s">
-        <v>498</v>
+      <c r="C198">
+        <v>1001</v>
       </c>
       <c r="D198" t="s">
         <v>498</v>
@@ -37458,8 +37458,8 @@
       <c r="B199" t="s">
         <v>1260</v>
       </c>
-      <c r="C199" t="s">
-        <v>498</v>
+      <c r="C199">
+        <v>1001</v>
       </c>
       <c r="D199" t="s">
         <v>498</v>
@@ -37622,8 +37622,8 @@
       <c r="B200" t="s">
         <v>1261</v>
       </c>
-      <c r="C200" t="s">
-        <v>498</v>
+      <c r="C200">
+        <v>1001</v>
       </c>
       <c r="D200" t="s">
         <v>498</v>
@@ -37786,8 +37786,8 @@
       <c r="B201" t="s">
         <v>1262</v>
       </c>
-      <c r="C201" t="s">
-        <v>498</v>
+      <c r="C201">
+        <v>1001</v>
       </c>
       <c r="D201" t="s">
         <v>498</v>
@@ -37950,8 +37950,8 @@
       <c r="B202" t="s">
         <v>1263</v>
       </c>
-      <c r="C202" t="s">
-        <v>498</v>
+      <c r="C202">
+        <v>1001</v>
       </c>
       <c r="D202" t="s">
         <v>498</v>
@@ -38114,8 +38114,8 @@
       <c r="B203" t="s">
         <v>1264</v>
       </c>
-      <c r="C203" t="s">
-        <v>498</v>
+      <c r="C203">
+        <v>1001</v>
       </c>
       <c r="D203" t="s">
         <v>498</v>
@@ -38278,8 +38278,8 @@
       <c r="B204" t="s">
         <v>1265</v>
       </c>
-      <c r="C204" t="s">
-        <v>498</v>
+      <c r="C204">
+        <v>1001</v>
       </c>
       <c r="D204" t="s">
         <v>498</v>
@@ -38442,8 +38442,8 @@
       <c r="B205" t="s">
         <v>1266</v>
       </c>
-      <c r="C205" t="s">
-        <v>498</v>
+      <c r="C205">
+        <v>1001</v>
       </c>
       <c r="D205" t="s">
         <v>498</v>
@@ -38606,8 +38606,8 @@
       <c r="B206" t="s">
         <v>1267</v>
       </c>
-      <c r="C206" t="s">
-        <v>498</v>
+      <c r="C206">
+        <v>1001</v>
       </c>
       <c r="D206" t="s">
         <v>498</v>
@@ -38770,8 +38770,8 @@
       <c r="B207" t="s">
         <v>1268</v>
       </c>
-      <c r="C207" t="s">
-        <v>498</v>
+      <c r="C207">
+        <v>1001</v>
       </c>
       <c r="D207" t="s">
         <v>498</v>
@@ -38934,8 +38934,8 @@
       <c r="B208" t="s">
         <v>1269</v>
       </c>
-      <c r="C208" t="s">
-        <v>498</v>
+      <c r="C208">
+        <v>1001</v>
       </c>
       <c r="D208" t="s">
         <v>498</v>
@@ -39098,8 +39098,8 @@
       <c r="B209" t="s">
         <v>1270</v>
       </c>
-      <c r="C209" t="s">
-        <v>498</v>
+      <c r="C209">
+        <v>1001</v>
       </c>
       <c r="D209" t="s">
         <v>498</v>
@@ -39262,8 +39262,8 @@
       <c r="B210" t="s">
         <v>1271</v>
       </c>
-      <c r="C210" t="s">
-        <v>498</v>
+      <c r="C210">
+        <v>1001</v>
       </c>
       <c r="D210" t="s">
         <v>498</v>
@@ -39426,8 +39426,8 @@
       <c r="B211" t="s">
         <v>1272</v>
       </c>
-      <c r="C211" t="s">
-        <v>498</v>
+      <c r="C211">
+        <v>1001</v>
       </c>
       <c r="D211" t="s">
         <v>498</v>
@@ -39590,8 +39590,8 @@
       <c r="B212" t="s">
         <v>1273</v>
       </c>
-      <c r="C212" t="s">
-        <v>498</v>
+      <c r="C212">
+        <v>1001</v>
       </c>
       <c r="D212" t="s">
         <v>498</v>
@@ -39754,8 +39754,8 @@
       <c r="B213" t="s">
         <v>1274</v>
       </c>
-      <c r="C213" t="s">
-        <v>498</v>
+      <c r="C213">
+        <v>1001</v>
       </c>
       <c r="D213" t="s">
         <v>498</v>
@@ -39918,8 +39918,8 @@
       <c r="B214" t="s">
         <v>1275</v>
       </c>
-      <c r="C214" t="s">
-        <v>498</v>
+      <c r="C214">
+        <v>1001</v>
       </c>
       <c r="D214" t="s">
         <v>498</v>
@@ -40082,8 +40082,8 @@
       <c r="B215" t="s">
         <v>1276</v>
       </c>
-      <c r="C215" t="s">
-        <v>498</v>
+      <c r="C215">
+        <v>1001</v>
       </c>
       <c r="D215" t="s">
         <v>498</v>
@@ -40246,8 +40246,8 @@
       <c r="B216" t="s">
         <v>1277</v>
       </c>
-      <c r="C216" t="s">
-        <v>498</v>
+      <c r="C216">
+        <v>1001</v>
       </c>
       <c r="D216" t="s">
         <v>498</v>
@@ -40410,8 +40410,8 @@
       <c r="B217" t="s">
         <v>1278</v>
       </c>
-      <c r="C217" t="s">
-        <v>498</v>
+      <c r="C217">
+        <v>1001</v>
       </c>
       <c r="D217" t="s">
         <v>498</v>
@@ -40574,8 +40574,8 @@
       <c r="B218" t="s">
         <v>1279</v>
       </c>
-      <c r="C218" t="s">
-        <v>498</v>
+      <c r="C218">
+        <v>1001</v>
       </c>
       <c r="D218" t="s">
         <v>498</v>
@@ -40738,8 +40738,8 @@
       <c r="B219" t="s">
         <v>1280</v>
       </c>
-      <c r="C219" t="s">
-        <v>498</v>
+      <c r="C219">
+        <v>1001</v>
       </c>
       <c r="D219" t="s">
         <v>498</v>
@@ -40902,8 +40902,8 @@
       <c r="B220" t="s">
         <v>1281</v>
       </c>
-      <c r="C220" t="s">
-        <v>498</v>
+      <c r="C220">
+        <v>1001</v>
       </c>
       <c r="D220" t="s">
         <v>498</v>
@@ -41066,8 +41066,8 @@
       <c r="B221" t="s">
         <v>1282</v>
       </c>
-      <c r="C221" t="s">
-        <v>498</v>
+      <c r="C221">
+        <v>1001</v>
       </c>
       <c r="D221" t="s">
         <v>498</v>
@@ -41230,8 +41230,8 @@
       <c r="B222" t="s">
         <v>1283</v>
       </c>
-      <c r="C222" t="s">
-        <v>498</v>
+      <c r="C222">
+        <v>1001</v>
       </c>
       <c r="D222" t="s">
         <v>498</v>
@@ -41394,8 +41394,8 @@
       <c r="B223" t="s">
         <v>1284</v>
       </c>
-      <c r="C223" t="s">
-        <v>498</v>
+      <c r="C223">
+        <v>1001</v>
       </c>
       <c r="D223" t="s">
         <v>498</v>
@@ -41558,8 +41558,8 @@
       <c r="B224" t="s">
         <v>1285</v>
       </c>
-      <c r="C224" t="s">
-        <v>498</v>
+      <c r="C224">
+        <v>1001</v>
       </c>
       <c r="D224" t="s">
         <v>498</v>
@@ -41722,8 +41722,8 @@
       <c r="B225" t="s">
         <v>1286</v>
       </c>
-      <c r="C225" t="s">
-        <v>498</v>
+      <c r="C225">
+        <v>1001</v>
       </c>
       <c r="D225" t="s">
         <v>498</v>
@@ -41886,8 +41886,8 @@
       <c r="B226" t="s">
         <v>1287</v>
       </c>
-      <c r="C226" t="s">
-        <v>498</v>
+      <c r="C226">
+        <v>1001</v>
       </c>
       <c r="D226" t="s">
         <v>498</v>
@@ -42050,8 +42050,8 @@
       <c r="B227" t="s">
         <v>1288</v>
       </c>
-      <c r="C227" t="s">
-        <v>498</v>
+      <c r="C227">
+        <v>1001</v>
       </c>
       <c r="D227" t="s">
         <v>498</v>
@@ -42214,8 +42214,8 @@
       <c r="B228" t="s">
         <v>1289</v>
       </c>
-      <c r="C228" t="s">
-        <v>498</v>
+      <c r="C228">
+        <v>1001</v>
       </c>
       <c r="D228" t="s">
         <v>498</v>
@@ -42378,8 +42378,8 @@
       <c r="B229" t="s">
         <v>1290</v>
       </c>
-      <c r="C229" t="s">
-        <v>498</v>
+      <c r="C229">
+        <v>1001</v>
       </c>
       <c r="D229" t="s">
         <v>498</v>
@@ -42542,8 +42542,8 @@
       <c r="B230" t="s">
         <v>1291</v>
       </c>
-      <c r="C230" t="s">
-        <v>498</v>
+      <c r="C230">
+        <v>1001</v>
       </c>
       <c r="D230" t="s">
         <v>498</v>
@@ -42706,8 +42706,8 @@
       <c r="B231" t="s">
         <v>1292</v>
       </c>
-      <c r="C231" t="s">
-        <v>498</v>
+      <c r="C231">
+        <v>1001</v>
       </c>
       <c r="D231" t="s">
         <v>498</v>
@@ -42870,8 +42870,8 @@
       <c r="B232" t="s">
         <v>1293</v>
       </c>
-      <c r="C232" t="s">
-        <v>498</v>
+      <c r="C232">
+        <v>1001</v>
       </c>
       <c r="D232" t="s">
         <v>498</v>
@@ -43034,8 +43034,8 @@
       <c r="B233" t="s">
         <v>1294</v>
       </c>
-      <c r="C233" t="s">
-        <v>498</v>
+      <c r="C233">
+        <v>1001</v>
       </c>
       <c r="D233" t="s">
         <v>498</v>
@@ -43198,8 +43198,8 @@
       <c r="B234" t="s">
         <v>1295</v>
       </c>
-      <c r="C234" t="s">
-        <v>498</v>
+      <c r="C234">
+        <v>1001</v>
       </c>
       <c r="D234" t="s">
         <v>498</v>
@@ -43362,8 +43362,8 @@
       <c r="B235" t="s">
         <v>1296</v>
       </c>
-      <c r="C235" t="s">
-        <v>498</v>
+      <c r="C235">
+        <v>1001</v>
       </c>
       <c r="D235" t="s">
         <v>498</v>
@@ -43526,8 +43526,8 @@
       <c r="B236" t="s">
         <v>1297</v>
       </c>
-      <c r="C236" t="s">
-        <v>498</v>
+      <c r="C236">
+        <v>1001</v>
       </c>
       <c r="D236" t="s">
         <v>498</v>
@@ -43690,8 +43690,8 @@
       <c r="B237" t="s">
         <v>1298</v>
       </c>
-      <c r="C237" t="s">
-        <v>498</v>
+      <c r="C237">
+        <v>1001</v>
       </c>
       <c r="D237" t="s">
         <v>498</v>
@@ -43854,8 +43854,8 @@
       <c r="B238" t="s">
         <v>1299</v>
       </c>
-      <c r="C238" t="s">
-        <v>498</v>
+      <c r="C238">
+        <v>1001</v>
       </c>
       <c r="D238" t="s">
         <v>498</v>
@@ -44018,8 +44018,8 @@
       <c r="B239" t="s">
         <v>1300</v>
       </c>
-      <c r="C239" t="s">
-        <v>498</v>
+      <c r="C239">
+        <v>1001</v>
       </c>
       <c r="D239" t="s">
         <v>498</v>
@@ -44182,8 +44182,8 @@
       <c r="B240" t="s">
         <v>1301</v>
       </c>
-      <c r="C240" t="s">
-        <v>498</v>
+      <c r="C240">
+        <v>1001</v>
       </c>
       <c r="D240" t="s">
         <v>498</v>
@@ -44346,8 +44346,8 @@
       <c r="B241" t="s">
         <v>1302</v>
       </c>
-      <c r="C241" t="s">
-        <v>498</v>
+      <c r="C241">
+        <v>1001</v>
       </c>
       <c r="D241" t="s">
         <v>498</v>
@@ -44510,8 +44510,8 @@
       <c r="B242" t="s">
         <v>1303</v>
       </c>
-      <c r="C242" t="s">
-        <v>498</v>
+      <c r="C242">
+        <v>1001</v>
       </c>
       <c r="D242" t="s">
         <v>498</v>
@@ -44674,8 +44674,8 @@
       <c r="B243" t="s">
         <v>1304</v>
       </c>
-      <c r="C243" t="s">
-        <v>498</v>
+      <c r="C243">
+        <v>1001</v>
       </c>
       <c r="D243" t="s">
         <v>498</v>
@@ -44838,8 +44838,8 @@
       <c r="B244" t="s">
         <v>1305</v>
       </c>
-      <c r="C244" t="s">
-        <v>498</v>
+      <c r="C244">
+        <v>1001</v>
       </c>
       <c r="D244" t="s">
         <v>498</v>
@@ -45002,8 +45002,8 @@
       <c r="B245" t="s">
         <v>1306</v>
       </c>
-      <c r="C245" t="s">
-        <v>498</v>
+      <c r="C245">
+        <v>1001</v>
       </c>
       <c r="D245" t="s">
         <v>498</v>
@@ -45166,8 +45166,8 @@
       <c r="B246" t="s">
         <v>1307</v>
       </c>
-      <c r="C246" t="s">
-        <v>498</v>
+      <c r="C246">
+        <v>1001</v>
       </c>
       <c r="D246" t="s">
         <v>498</v>
@@ -45330,8 +45330,8 @@
       <c r="B247" t="s">
         <v>1308</v>
       </c>
-      <c r="C247" t="s">
-        <v>498</v>
+      <c r="C247">
+        <v>1001</v>
       </c>
       <c r="D247" t="s">
         <v>498</v>
@@ -45494,8 +45494,8 @@
       <c r="B248" t="s">
         <v>1309</v>
       </c>
-      <c r="C248" t="s">
-        <v>498</v>
+      <c r="C248">
+        <v>1001</v>
       </c>
       <c r="D248" t="s">
         <v>498</v>
@@ -45658,8 +45658,8 @@
       <c r="B249" t="s">
         <v>1310</v>
       </c>
-      <c r="C249" t="s">
-        <v>498</v>
+      <c r="C249">
+        <v>1001</v>
       </c>
       <c r="D249" t="s">
         <v>498</v>
@@ -45822,8 +45822,8 @@
       <c r="B250" t="s">
         <v>1311</v>
       </c>
-      <c r="C250" t="s">
-        <v>498</v>
+      <c r="C250">
+        <v>1001</v>
       </c>
       <c r="D250" t="s">
         <v>498</v>
@@ -45986,8 +45986,8 @@
       <c r="B251" t="s">
         <v>1312</v>
       </c>
-      <c r="C251" t="s">
-        <v>498</v>
+      <c r="C251">
+        <v>1001</v>
       </c>
       <c r="D251" t="s">
         <v>498</v>
@@ -46150,8 +46150,8 @@
       <c r="B252" t="s">
         <v>1313</v>
       </c>
-      <c r="C252" t="s">
-        <v>498</v>
+      <c r="C252">
+        <v>1001</v>
       </c>
       <c r="D252" t="s">
         <v>498</v>
@@ -46314,8 +46314,8 @@
       <c r="B253" t="s">
         <v>1314</v>
       </c>
-      <c r="C253" t="s">
-        <v>498</v>
+      <c r="C253">
+        <v>1001</v>
       </c>
       <c r="D253" t="s">
         <v>498</v>
@@ -46478,8 +46478,8 @@
       <c r="B254" t="s">
         <v>1315</v>
       </c>
-      <c r="C254" t="s">
-        <v>498</v>
+      <c r="C254">
+        <v>1001</v>
       </c>
       <c r="D254" t="s">
         <v>498</v>
@@ -46642,8 +46642,8 @@
       <c r="B255" t="s">
         <v>1316</v>
       </c>
-      <c r="C255" t="s">
-        <v>498</v>
+      <c r="C255">
+        <v>1001</v>
       </c>
       <c r="D255" t="s">
         <v>498</v>
@@ -46806,8 +46806,8 @@
       <c r="B256" t="s">
         <v>1317</v>
       </c>
-      <c r="C256" t="s">
-        <v>498</v>
+      <c r="C256">
+        <v>1001</v>
       </c>
       <c r="D256" t="s">
         <v>498</v>
@@ -46970,8 +46970,8 @@
       <c r="B257" t="s">
         <v>1318</v>
       </c>
-      <c r="C257" t="s">
-        <v>498</v>
+      <c r="C257">
+        <v>1001</v>
       </c>
       <c r="D257" t="s">
         <v>498</v>
@@ -47134,8 +47134,8 @@
       <c r="B258" t="s">
         <v>1319</v>
       </c>
-      <c r="C258" t="s">
-        <v>498</v>
+      <c r="C258">
+        <v>1001</v>
       </c>
       <c r="D258" t="s">
         <v>498</v>
@@ -47298,8 +47298,8 @@
       <c r="B259" t="s">
         <v>1320</v>
       </c>
-      <c r="C259" t="s">
-        <v>498</v>
+      <c r="C259">
+        <v>1001</v>
       </c>
       <c r="D259" t="s">
         <v>498</v>
@@ -47462,8 +47462,8 @@
       <c r="B260" t="s">
         <v>1321</v>
       </c>
-      <c r="C260" t="s">
-        <v>498</v>
+      <c r="C260">
+        <v>1001</v>
       </c>
       <c r="D260" t="s">
         <v>498</v>
@@ -47626,8 +47626,8 @@
       <c r="B261" t="s">
         <v>1322</v>
       </c>
-      <c r="C261" t="s">
-        <v>498</v>
+      <c r="C261">
+        <v>1001</v>
       </c>
       <c r="D261" t="s">
         <v>498</v>
@@ -47790,8 +47790,8 @@
       <c r="B262" t="s">
         <v>1323</v>
       </c>
-      <c r="C262" t="s">
-        <v>498</v>
+      <c r="C262">
+        <v>1001</v>
       </c>
       <c r="D262" t="s">
         <v>498</v>
@@ -47954,8 +47954,8 @@
       <c r="B263" t="s">
         <v>1324</v>
       </c>
-      <c r="C263" t="s">
-        <v>498</v>
+      <c r="C263">
+        <v>1001</v>
       </c>
       <c r="D263" t="s">
         <v>498</v>
@@ -48118,8 +48118,8 @@
       <c r="B264" t="s">
         <v>1325</v>
       </c>
-      <c r="C264" t="s">
-        <v>498</v>
+      <c r="C264">
+        <v>1001</v>
       </c>
       <c r="D264" t="s">
         <v>498</v>
@@ -48282,8 +48282,8 @@
       <c r="B265" t="s">
         <v>1326</v>
       </c>
-      <c r="C265" t="s">
-        <v>498</v>
+      <c r="C265">
+        <v>1001</v>
       </c>
       <c r="D265" t="s">
         <v>498</v>
@@ -48446,8 +48446,8 @@
       <c r="B266" t="s">
         <v>1327</v>
       </c>
-      <c r="C266" t="s">
-        <v>498</v>
+      <c r="C266">
+        <v>1001</v>
       </c>
       <c r="D266" t="s">
         <v>498</v>
@@ -48610,8 +48610,8 @@
       <c r="B267" t="s">
         <v>1328</v>
       </c>
-      <c r="C267" t="s">
-        <v>498</v>
+      <c r="C267">
+        <v>1001</v>
       </c>
       <c r="D267" t="s">
         <v>498</v>
@@ -48774,8 +48774,8 @@
       <c r="B268" t="s">
         <v>1329</v>
       </c>
-      <c r="C268" t="s">
-        <v>498</v>
+      <c r="C268">
+        <v>1001</v>
       </c>
       <c r="D268" t="s">
         <v>498</v>
@@ -48938,8 +48938,8 @@
       <c r="B269" t="s">
         <v>1330</v>
       </c>
-      <c r="C269" t="s">
-        <v>498</v>
+      <c r="C269">
+        <v>1001</v>
       </c>
       <c r="D269" t="s">
         <v>498</v>
@@ -49102,8 +49102,8 @@
       <c r="B270" t="s">
         <v>1331</v>
       </c>
-      <c r="C270" t="s">
-        <v>498</v>
+      <c r="C270">
+        <v>1001</v>
       </c>
       <c r="D270" t="s">
         <v>498</v>
@@ -49266,8 +49266,8 @@
       <c r="B271" t="s">
         <v>1332</v>
       </c>
-      <c r="C271" t="s">
-        <v>498</v>
+      <c r="C271">
+        <v>1001</v>
       </c>
       <c r="D271" t="s">
         <v>498</v>
@@ -49430,8 +49430,8 @@
       <c r="B272" t="s">
         <v>1333</v>
       </c>
-      <c r="C272" t="s">
-        <v>498</v>
+      <c r="C272">
+        <v>1001</v>
       </c>
       <c r="D272" t="s">
         <v>498</v>
@@ -49594,8 +49594,8 @@
       <c r="B273" t="s">
         <v>1334</v>
       </c>
-      <c r="C273" t="s">
-        <v>498</v>
+      <c r="C273">
+        <v>1001</v>
       </c>
       <c r="D273" t="s">
         <v>498</v>
@@ -49758,8 +49758,8 @@
       <c r="B274" t="s">
         <v>1335</v>
       </c>
-      <c r="C274" t="s">
-        <v>498</v>
+      <c r="C274">
+        <v>1001</v>
       </c>
       <c r="D274" t="s">
         <v>498</v>
@@ -49922,8 +49922,8 @@
       <c r="B275" t="s">
         <v>1336</v>
       </c>
-      <c r="C275" t="s">
-        <v>498</v>
+      <c r="C275">
+        <v>1001</v>
       </c>
       <c r="D275" t="s">
         <v>498</v>
@@ -50086,8 +50086,8 @@
       <c r="B276" t="s">
         <v>1337</v>
       </c>
-      <c r="C276" t="s">
-        <v>498</v>
+      <c r="C276">
+        <v>1001</v>
       </c>
       <c r="D276" t="s">
         <v>498</v>
@@ -50250,8 +50250,8 @@
       <c r="B277" t="s">
         <v>1338</v>
       </c>
-      <c r="C277" t="s">
-        <v>498</v>
+      <c r="C277">
+        <v>1001</v>
       </c>
       <c r="D277" t="s">
         <v>498</v>
@@ -50414,8 +50414,8 @@
       <c r="B278" t="s">
         <v>1339</v>
       </c>
-      <c r="C278" t="s">
-        <v>498</v>
+      <c r="C278">
+        <v>1001</v>
       </c>
       <c r="D278" t="s">
         <v>498</v>
@@ -50578,8 +50578,8 @@
       <c r="B279" t="s">
         <v>1340</v>
       </c>
-      <c r="C279" t="s">
-        <v>498</v>
+      <c r="C279">
+        <v>1001</v>
       </c>
       <c r="D279" t="s">
         <v>498</v>
@@ -50742,8 +50742,8 @@
       <c r="B280" t="s">
         <v>1341</v>
       </c>
-      <c r="C280" t="s">
-        <v>498</v>
+      <c r="C280">
+        <v>1001</v>
       </c>
       <c r="D280" t="s">
         <v>498</v>
@@ -50906,8 +50906,8 @@
       <c r="B281" t="s">
         <v>1342</v>
       </c>
-      <c r="C281" t="s">
-        <v>498</v>
+      <c r="C281">
+        <v>1001</v>
       </c>
       <c r="D281" t="s">
         <v>498</v>
@@ -51070,8 +51070,8 @@
       <c r="B282" t="s">
         <v>1343</v>
       </c>
-      <c r="C282" t="s">
-        <v>498</v>
+      <c r="C282">
+        <v>1001</v>
       </c>
       <c r="D282" t="s">
         <v>498</v>
@@ -51234,8 +51234,8 @@
       <c r="B283" t="s">
         <v>1344</v>
       </c>
-      <c r="C283" t="s">
-        <v>498</v>
+      <c r="C283">
+        <v>1001</v>
       </c>
       <c r="D283" t="s">
         <v>498</v>
@@ -51398,8 +51398,8 @@
       <c r="B284" t="s">
         <v>1345</v>
       </c>
-      <c r="C284" t="s">
-        <v>498</v>
+      <c r="C284">
+        <v>1001</v>
       </c>
       <c r="D284" t="s">
         <v>498</v>
@@ -51562,8 +51562,8 @@
       <c r="B285" t="s">
         <v>1346</v>
       </c>
-      <c r="C285" t="s">
-        <v>498</v>
+      <c r="C285">
+        <v>1001</v>
       </c>
       <c r="D285" t="s">
         <v>498</v>
@@ -51726,8 +51726,8 @@
       <c r="B286" t="s">
         <v>1347</v>
       </c>
-      <c r="C286" t="s">
-        <v>498</v>
+      <c r="C286">
+        <v>1001</v>
       </c>
       <c r="D286" t="s">
         <v>498</v>
@@ -51890,8 +51890,8 @@
       <c r="B287" t="s">
         <v>1348</v>
       </c>
-      <c r="C287" t="s">
-        <v>498</v>
+      <c r="C287">
+        <v>1001</v>
       </c>
       <c r="D287" t="s">
         <v>498</v>
@@ -52054,8 +52054,8 @@
       <c r="B288" t="s">
         <v>1349</v>
       </c>
-      <c r="C288" t="s">
-        <v>498</v>
+      <c r="C288">
+        <v>1001</v>
       </c>
       <c r="D288" t="s">
         <v>498</v>
@@ -52218,8 +52218,8 @@
       <c r="B289" t="s">
         <v>1350</v>
       </c>
-      <c r="C289" t="s">
-        <v>498</v>
+      <c r="C289">
+        <v>1001</v>
       </c>
       <c r="D289" t="s">
         <v>498</v>
@@ -52382,8 +52382,8 @@
       <c r="B290" t="s">
         <v>1351</v>
       </c>
-      <c r="C290" t="s">
-        <v>498</v>
+      <c r="C290">
+        <v>1001</v>
       </c>
       <c r="D290" t="s">
         <v>498</v>
@@ -52546,8 +52546,8 @@
       <c r="B291" t="s">
         <v>1352</v>
       </c>
-      <c r="C291" t="s">
-        <v>498</v>
+      <c r="C291">
+        <v>1001</v>
       </c>
       <c r="D291" t="s">
         <v>498</v>
@@ -52710,8 +52710,8 @@
       <c r="B292" t="s">
         <v>1353</v>
       </c>
-      <c r="C292" t="s">
-        <v>498</v>
+      <c r="C292">
+        <v>1001</v>
       </c>
       <c r="D292" t="s">
         <v>498</v>
@@ -52874,8 +52874,8 @@
       <c r="B293" t="s">
         <v>1354</v>
       </c>
-      <c r="C293" t="s">
-        <v>498</v>
+      <c r="C293">
+        <v>1001</v>
       </c>
       <c r="D293" t="s">
         <v>498</v>
@@ -53038,8 +53038,8 @@
       <c r="B294" t="s">
         <v>1355</v>
       </c>
-      <c r="C294" t="s">
-        <v>498</v>
+      <c r="C294">
+        <v>1001</v>
       </c>
       <c r="D294" t="s">
         <v>498</v>
@@ -53202,8 +53202,8 @@
       <c r="B295" t="s">
         <v>1356</v>
       </c>
-      <c r="C295" t="s">
-        <v>498</v>
+      <c r="C295">
+        <v>1001</v>
       </c>
       <c r="D295" t="s">
         <v>498</v>
@@ -53366,8 +53366,8 @@
       <c r="B296" t="s">
         <v>1357</v>
       </c>
-      <c r="C296" t="s">
-        <v>498</v>
+      <c r="C296">
+        <v>1001</v>
       </c>
       <c r="D296" t="s">
         <v>498</v>
@@ -53530,8 +53530,8 @@
       <c r="B297" t="s">
         <v>1358</v>
       </c>
-      <c r="C297" t="s">
-        <v>498</v>
+      <c r="C297">
+        <v>1001</v>
       </c>
       <c r="D297" t="s">
         <v>498</v>
@@ -53694,8 +53694,8 @@
       <c r="B298" t="s">
         <v>1359</v>
       </c>
-      <c r="C298" t="s">
-        <v>498</v>
+      <c r="C298">
+        <v>1001</v>
       </c>
       <c r="D298" t="s">
         <v>498</v>
@@ -53858,8 +53858,8 @@
       <c r="B299" t="s">
         <v>1360</v>
       </c>
-      <c r="C299" t="s">
-        <v>498</v>
+      <c r="C299">
+        <v>1001</v>
       </c>
       <c r="D299" t="s">
         <v>498</v>
@@ -54022,8 +54022,8 @@
       <c r="B300" t="s">
         <v>1361</v>
       </c>
-      <c r="C300" t="s">
-        <v>498</v>
+      <c r="C300">
+        <v>1001</v>
       </c>
       <c r="D300" t="s">
         <v>498</v>
@@ -54186,8 +54186,8 @@
       <c r="B301" t="s">
         <v>1362</v>
       </c>
-      <c r="C301" t="s">
-        <v>498</v>
+      <c r="C301">
+        <v>1001</v>
       </c>
       <c r="D301" t="s">
         <v>498</v>
@@ -54350,8 +54350,8 @@
       <c r="B302" t="s">
         <v>1363</v>
       </c>
-      <c r="C302" t="s">
-        <v>498</v>
+      <c r="C302">
+        <v>1001</v>
       </c>
       <c r="D302" t="s">
         <v>498</v>
@@ -54514,8 +54514,8 @@
       <c r="B303" t="s">
         <v>1364</v>
       </c>
-      <c r="C303" t="s">
-        <v>498</v>
+      <c r="C303">
+        <v>1001</v>
       </c>
       <c r="D303" t="s">
         <v>498</v>
@@ -54678,8 +54678,8 @@
       <c r="B304" t="s">
         <v>1365</v>
       </c>
-      <c r="C304" t="s">
-        <v>498</v>
+      <c r="C304">
+        <v>1001</v>
       </c>
       <c r="D304" t="s">
         <v>498</v>
@@ -54842,8 +54842,8 @@
       <c r="B305" t="s">
         <v>1366</v>
       </c>
-      <c r="C305" t="s">
-        <v>498</v>
+      <c r="C305">
+        <v>1001</v>
       </c>
       <c r="D305" t="s">
         <v>498</v>
@@ -55006,8 +55006,8 @@
       <c r="B306" t="s">
         <v>1367</v>
       </c>
-      <c r="C306" t="s">
-        <v>498</v>
+      <c r="C306">
+        <v>1001</v>
       </c>
       <c r="D306" t="s">
         <v>498</v>
@@ -55170,8 +55170,8 @@
       <c r="B307" t="s">
         <v>1368</v>
       </c>
-      <c r="C307" t="s">
-        <v>498</v>
+      <c r="C307">
+        <v>1001</v>
       </c>
       <c r="D307" t="s">
         <v>498</v>
@@ -55334,8 +55334,8 @@
       <c r="B308" t="s">
         <v>1369</v>
       </c>
-      <c r="C308" t="s">
-        <v>498</v>
+      <c r="C308">
+        <v>1001</v>
       </c>
       <c r="D308" t="s">
         <v>498</v>
@@ -55498,8 +55498,8 @@
       <c r="B309" t="s">
         <v>1370</v>
       </c>
-      <c r="C309" t="s">
-        <v>498</v>
+      <c r="C309">
+        <v>1001</v>
       </c>
       <c r="D309" t="s">
         <v>498</v>
@@ -55662,8 +55662,8 @@
       <c r="B310" t="s">
         <v>1371</v>
       </c>
-      <c r="C310" t="s">
-        <v>498</v>
+      <c r="C310">
+        <v>1001</v>
       </c>
       <c r="D310" t="s">
         <v>498</v>
@@ -55826,8 +55826,8 @@
       <c r="B311" t="s">
         <v>1372</v>
       </c>
-      <c r="C311" t="s">
-        <v>498</v>
+      <c r="C311">
+        <v>1001</v>
       </c>
       <c r="D311" t="s">
         <v>498</v>
@@ -55990,8 +55990,8 @@
       <c r="B312" t="s">
         <v>1373</v>
       </c>
-      <c r="C312" t="s">
-        <v>498</v>
+      <c r="C312">
+        <v>1001</v>
       </c>
       <c r="D312" t="s">
         <v>498</v>
@@ -56154,8 +56154,8 @@
       <c r="B313" t="s">
         <v>1374</v>
       </c>
-      <c r="C313" t="s">
-        <v>498</v>
+      <c r="C313">
+        <v>1001</v>
       </c>
       <c r="D313" t="s">
         <v>498</v>
@@ -56318,8 +56318,8 @@
       <c r="B314" t="s">
         <v>1375</v>
       </c>
-      <c r="C314" t="s">
-        <v>498</v>
+      <c r="C314">
+        <v>1001</v>
       </c>
       <c r="D314" t="s">
         <v>498</v>
@@ -56482,8 +56482,8 @@
       <c r="B315" t="s">
         <v>1376</v>
       </c>
-      <c r="C315" t="s">
-        <v>498</v>
+      <c r="C315">
+        <v>1001</v>
       </c>
       <c r="D315" t="s">
         <v>498</v>
@@ -56646,8 +56646,8 @@
       <c r="B316" t="s">
         <v>1377</v>
       </c>
-      <c r="C316" t="s">
-        <v>498</v>
+      <c r="C316">
+        <v>1001</v>
       </c>
       <c r="D316" t="s">
         <v>498</v>
@@ -56810,8 +56810,8 @@
       <c r="B317" t="s">
         <v>1378</v>
       </c>
-      <c r="C317" t="s">
-        <v>498</v>
+      <c r="C317">
+        <v>1001</v>
       </c>
       <c r="D317" t="s">
         <v>498</v>
@@ -56974,8 +56974,8 @@
       <c r="B318" t="s">
         <v>1379</v>
       </c>
-      <c r="C318" t="s">
-        <v>498</v>
+      <c r="C318">
+        <v>1001</v>
       </c>
       <c r="D318" t="s">
         <v>498</v>
@@ -57138,8 +57138,8 @@
       <c r="B319" t="s">
         <v>1380</v>
       </c>
-      <c r="C319" t="s">
-        <v>498</v>
+      <c r="C319">
+        <v>1001</v>
       </c>
       <c r="D319" t="s">
         <v>498</v>
@@ -57302,8 +57302,8 @@
       <c r="B320" t="s">
         <v>1381</v>
       </c>
-      <c r="C320" t="s">
-        <v>498</v>
+      <c r="C320">
+        <v>1001</v>
       </c>
       <c r="D320" t="s">
         <v>498</v>
@@ -57466,8 +57466,8 @@
       <c r="B321" t="s">
         <v>1382</v>
       </c>
-      <c r="C321" t="s">
-        <v>498</v>
+      <c r="C321">
+        <v>1001</v>
       </c>
       <c r="D321" t="s">
         <v>498</v>
@@ -57630,8 +57630,8 @@
       <c r="B322" t="s">
         <v>1383</v>
       </c>
-      <c r="C322" t="s">
-        <v>498</v>
+      <c r="C322">
+        <v>1001</v>
       </c>
       <c r="D322" t="s">
         <v>498</v>
@@ -57794,8 +57794,8 @@
       <c r="B323" t="s">
         <v>1384</v>
       </c>
-      <c r="C323" t="s">
-        <v>498</v>
+      <c r="C323">
+        <v>1001</v>
       </c>
       <c r="D323" t="s">
         <v>498</v>
@@ -57958,8 +57958,8 @@
       <c r="B324" t="s">
         <v>1385</v>
       </c>
-      <c r="C324" t="s">
-        <v>498</v>
+      <c r="C324">
+        <v>1001</v>
       </c>
       <c r="D324" t="s">
         <v>498</v>
@@ -58122,8 +58122,8 @@
       <c r="B325" t="s">
         <v>1386</v>
       </c>
-      <c r="C325" t="s">
-        <v>498</v>
+      <c r="C325">
+        <v>1001</v>
       </c>
       <c r="D325" t="s">
         <v>498</v>
@@ -58286,8 +58286,8 @@
       <c r="B326" t="s">
         <v>1387</v>
       </c>
-      <c r="C326" t="s">
-        <v>498</v>
+      <c r="C326">
+        <v>1001</v>
       </c>
       <c r="D326" t="s">
         <v>498</v>
@@ -58450,8 +58450,8 @@
       <c r="B327" t="s">
         <v>1388</v>
       </c>
-      <c r="C327" t="s">
-        <v>498</v>
+      <c r="C327">
+        <v>1001</v>
       </c>
       <c r="D327" t="s">
         <v>498</v>
@@ -58614,8 +58614,8 @@
       <c r="B328" t="s">
         <v>1389</v>
       </c>
-      <c r="C328" t="s">
-        <v>498</v>
+      <c r="C328">
+        <v>1001</v>
       </c>
       <c r="D328" t="s">
         <v>498</v>
@@ -58778,8 +58778,8 @@
       <c r="B329" t="s">
         <v>1390</v>
       </c>
-      <c r="C329" t="s">
-        <v>498</v>
+      <c r="C329">
+        <v>1001</v>
       </c>
       <c r="D329" t="s">
         <v>498</v>
@@ -58942,8 +58942,8 @@
       <c r="B330" t="s">
         <v>1391</v>
       </c>
-      <c r="C330" t="s">
-        <v>498</v>
+      <c r="C330">
+        <v>1001</v>
       </c>
       <c r="D330" t="s">
         <v>498</v>
@@ -59106,8 +59106,8 @@
       <c r="B331" t="s">
         <v>1392</v>
       </c>
-      <c r="C331" t="s">
-        <v>498</v>
+      <c r="C331">
+        <v>1001</v>
       </c>
       <c r="D331" t="s">
         <v>498</v>
@@ -59270,8 +59270,8 @@
       <c r="B332" t="s">
         <v>1393</v>
       </c>
-      <c r="C332" t="s">
-        <v>498</v>
+      <c r="C332">
+        <v>1001</v>
       </c>
       <c r="D332" t="s">
         <v>498</v>
@@ -59434,8 +59434,8 @@
       <c r="B333" t="s">
         <v>1394</v>
       </c>
-      <c r="C333" t="s">
-        <v>498</v>
+      <c r="C333">
+        <v>1001</v>
       </c>
       <c r="D333" t="s">
         <v>498</v>
@@ -59598,8 +59598,8 @@
       <c r="B334" t="s">
         <v>1395</v>
       </c>
-      <c r="C334" t="s">
-        <v>498</v>
+      <c r="C334">
+        <v>1001</v>
       </c>
       <c r="D334" t="s">
         <v>498</v>
@@ -59762,8 +59762,8 @@
       <c r="B335" t="s">
         <v>1396</v>
       </c>
-      <c r="C335" t="s">
-        <v>498</v>
+      <c r="C335">
+        <v>1001</v>
       </c>
       <c r="D335" t="s">
         <v>498</v>
@@ -59926,8 +59926,8 @@
       <c r="B336" t="s">
         <v>1397</v>
       </c>
-      <c r="C336" t="s">
-        <v>498</v>
+      <c r="C336">
+        <v>1001</v>
       </c>
       <c r="D336" t="s">
         <v>498</v>
@@ -60090,8 +60090,8 @@
       <c r="B337" t="s">
         <v>1398</v>
       </c>
-      <c r="C337" t="s">
-        <v>498</v>
+      <c r="C337">
+        <v>1001</v>
       </c>
       <c r="D337" t="s">
         <v>498</v>
@@ -60254,8 +60254,8 @@
       <c r="B338" t="s">
         <v>1399</v>
       </c>
-      <c r="C338" t="s">
-        <v>498</v>
+      <c r="C338">
+        <v>1001</v>
       </c>
       <c r="D338" t="s">
         <v>498</v>
@@ -60418,8 +60418,8 @@
       <c r="B339" t="s">
         <v>1400</v>
       </c>
-      <c r="C339" t="s">
-        <v>498</v>
+      <c r="C339">
+        <v>1001</v>
       </c>
       <c r="D339" t="s">
         <v>498</v>
@@ -60582,8 +60582,8 @@
       <c r="B340" t="s">
         <v>1401</v>
       </c>
-      <c r="C340" t="s">
-        <v>498</v>
+      <c r="C340">
+        <v>1001</v>
       </c>
       <c r="D340" t="s">
         <v>498</v>
@@ -60746,8 +60746,8 @@
       <c r="B341" t="s">
         <v>1402</v>
       </c>
-      <c r="C341" t="s">
-        <v>498</v>
+      <c r="C341">
+        <v>1001</v>
       </c>
       <c r="D341" t="s">
         <v>498</v>
@@ -60910,8 +60910,8 @@
       <c r="B342" t="s">
         <v>1403</v>
       </c>
-      <c r="C342" t="s">
-        <v>498</v>
+      <c r="C342">
+        <v>1001</v>
       </c>
       <c r="D342" t="s">
         <v>498</v>
@@ -61074,8 +61074,8 @@
       <c r="B343" t="s">
         <v>1404</v>
       </c>
-      <c r="C343" t="s">
-        <v>498</v>
+      <c r="C343">
+        <v>1001</v>
       </c>
       <c r="D343" t="s">
         <v>498</v>
@@ -61238,8 +61238,8 @@
       <c r="B344" t="s">
         <v>1405</v>
       </c>
-      <c r="C344" t="s">
-        <v>498</v>
+      <c r="C344">
+        <v>1001</v>
       </c>
       <c r="D344" t="s">
         <v>498</v>
@@ -61402,8 +61402,8 @@
       <c r="B345" t="s">
         <v>1406</v>
       </c>
-      <c r="C345" t="s">
-        <v>498</v>
+      <c r="C345">
+        <v>1001</v>
       </c>
       <c r="D345" t="s">
         <v>498</v>
@@ -61566,8 +61566,8 @@
       <c r="B346" t="s">
         <v>1407</v>
       </c>
-      <c r="C346" t="s">
-        <v>498</v>
+      <c r="C346">
+        <v>1001</v>
       </c>
       <c r="D346" t="s">
         <v>498</v>
@@ -61730,8 +61730,8 @@
       <c r="B347" t="s">
         <v>1408</v>
       </c>
-      <c r="C347" t="s">
-        <v>498</v>
+      <c r="C347">
+        <v>1001</v>
       </c>
       <c r="D347" t="s">
         <v>498</v>
@@ -61894,8 +61894,8 @@
       <c r="B348" t="s">
         <v>1409</v>
       </c>
-      <c r="C348" t="s">
-        <v>498</v>
+      <c r="C348">
+        <v>1001</v>
       </c>
       <c r="D348" t="s">
         <v>498</v>
@@ -62058,8 +62058,8 @@
       <c r="B349" t="s">
         <v>1410</v>
       </c>
-      <c r="C349" t="s">
-        <v>498</v>
+      <c r="C349">
+        <v>1001</v>
       </c>
       <c r="D349" t="s">
         <v>498</v>
@@ -62222,8 +62222,8 @@
       <c r="B350" t="s">
         <v>1411</v>
       </c>
-      <c r="C350" t="s">
-        <v>498</v>
+      <c r="C350">
+        <v>1001</v>
       </c>
       <c r="D350" t="s">
         <v>498</v>
@@ -62386,8 +62386,8 @@
       <c r="B351" t="s">
         <v>1412</v>
       </c>
-      <c r="C351" t="s">
-        <v>498</v>
+      <c r="C351">
+        <v>1001</v>
       </c>
       <c r="D351" t="s">
         <v>498</v>
@@ -62550,8 +62550,8 @@
       <c r="B352" t="s">
         <v>1413</v>
       </c>
-      <c r="C352" t="s">
-        <v>498</v>
+      <c r="C352">
+        <v>1001</v>
       </c>
       <c r="D352" t="s">
         <v>498</v>
@@ -62714,8 +62714,8 @@
       <c r="B353" t="s">
         <v>1414</v>
       </c>
-      <c r="C353" t="s">
-        <v>498</v>
+      <c r="C353">
+        <v>1001</v>
       </c>
       <c r="D353" t="s">
         <v>498</v>
@@ -62878,8 +62878,8 @@
       <c r="B354" t="s">
         <v>1415</v>
       </c>
-      <c r="C354" t="s">
-        <v>498</v>
+      <c r="C354">
+        <v>1001</v>
       </c>
       <c r="D354" t="s">
         <v>498</v>
@@ -63042,8 +63042,8 @@
       <c r="B355" t="s">
         <v>1416</v>
       </c>
-      <c r="C355" t="s">
-        <v>498</v>
+      <c r="C355">
+        <v>1001</v>
       </c>
       <c r="D355" t="s">
         <v>498</v>
@@ -63206,8 +63206,8 @@
       <c r="B356" t="s">
         <v>1417</v>
       </c>
-      <c r="C356" t="s">
-        <v>498</v>
+      <c r="C356">
+        <v>1001</v>
       </c>
       <c r="D356" t="s">
         <v>498</v>
@@ -63370,8 +63370,8 @@
       <c r="B357" t="s">
         <v>1418</v>
       </c>
-      <c r="C357" t="s">
-        <v>498</v>
+      <c r="C357">
+        <v>1001</v>
       </c>
       <c r="D357" t="s">
         <v>498</v>
@@ -63534,8 +63534,8 @@
       <c r="B358" t="s">
         <v>1419</v>
       </c>
-      <c r="C358" t="s">
-        <v>498</v>
+      <c r="C358">
+        <v>1001</v>
       </c>
       <c r="D358" t="s">
         <v>498</v>
@@ -63698,8 +63698,8 @@
       <c r="B359" t="s">
         <v>1420</v>
       </c>
-      <c r="C359" t="s">
-        <v>498</v>
+      <c r="C359">
+        <v>1001</v>
       </c>
       <c r="D359" t="s">
         <v>498</v>
@@ -63862,8 +63862,8 @@
       <c r="B360" t="s">
         <v>1421</v>
       </c>
-      <c r="C360" t="s">
-        <v>498</v>
+      <c r="C360">
+        <v>1001</v>
       </c>
       <c r="D360" t="s">
         <v>498</v>
@@ -64026,8 +64026,8 @@
       <c r="B361" t="s">
         <v>1422</v>
       </c>
-      <c r="C361" t="s">
-        <v>498</v>
+      <c r="C361">
+        <v>1001</v>
       </c>
       <c r="D361" t="s">
         <v>498</v>
@@ -64190,8 +64190,8 @@
       <c r="B362" t="s">
         <v>1423</v>
       </c>
-      <c r="C362" t="s">
-        <v>498</v>
+      <c r="C362">
+        <v>1001</v>
       </c>
       <c r="D362" t="s">
         <v>498</v>
@@ -64354,8 +64354,8 @@
       <c r="B363" t="s">
         <v>1424</v>
       </c>
-      <c r="C363" t="s">
-        <v>498</v>
+      <c r="C363">
+        <v>1001</v>
       </c>
       <c r="D363" t="s">
         <v>498</v>
@@ -64518,8 +64518,8 @@
       <c r="B364" t="s">
         <v>1425</v>
       </c>
-      <c r="C364" t="s">
-        <v>498</v>
+      <c r="C364">
+        <v>1001</v>
       </c>
       <c r="D364" t="s">
         <v>498</v>
@@ -64682,8 +64682,8 @@
       <c r="B365" t="s">
         <v>1426</v>
       </c>
-      <c r="C365" t="s">
-        <v>498</v>
+      <c r="C365">
+        <v>1001</v>
       </c>
       <c r="D365" t="s">
         <v>498</v>
@@ -64846,8 +64846,8 @@
       <c r="B366" t="s">
         <v>1427</v>
       </c>
-      <c r="C366" t="s">
-        <v>498</v>
+      <c r="C366">
+        <v>1001</v>
       </c>
       <c r="D366" t="s">
         <v>498</v>
@@ -65010,8 +65010,8 @@
       <c r="B367" t="s">
         <v>1428</v>
       </c>
-      <c r="C367" t="s">
-        <v>498</v>
+      <c r="C367">
+        <v>1001</v>
       </c>
       <c r="D367" t="s">
         <v>498</v>
@@ -65174,8 +65174,8 @@
       <c r="B368" t="s">
         <v>1429</v>
       </c>
-      <c r="C368" t="s">
-        <v>498</v>
+      <c r="C368">
+        <v>1001</v>
       </c>
       <c r="D368" t="s">
         <v>498</v>
@@ -65338,8 +65338,8 @@
       <c r="B369" t="s">
         <v>1430</v>
       </c>
-      <c r="C369" t="s">
-        <v>498</v>
+      <c r="C369">
+        <v>1001</v>
       </c>
       <c r="D369" t="s">
         <v>498</v>
@@ -65502,8 +65502,8 @@
       <c r="B370" t="s">
         <v>1431</v>
       </c>
-      <c r="C370" t="s">
-        <v>498</v>
+      <c r="C370">
+        <v>1001</v>
       </c>
       <c r="D370" t="s">
         <v>498</v>
@@ -65666,8 +65666,8 @@
       <c r="B371" t="s">
         <v>1432</v>
       </c>
-      <c r="C371" t="s">
-        <v>498</v>
+      <c r="C371">
+        <v>1001</v>
       </c>
       <c r="D371" t="s">
         <v>498</v>
@@ -65830,8 +65830,8 @@
       <c r="B372" t="s">
         <v>1433</v>
       </c>
-      <c r="C372" t="s">
-        <v>498</v>
+      <c r="C372">
+        <v>1001</v>
       </c>
       <c r="D372" t="s">
         <v>498</v>
@@ -65994,8 +65994,8 @@
       <c r="B373" t="s">
         <v>1434</v>
       </c>
-      <c r="C373" t="s">
-        <v>498</v>
+      <c r="C373">
+        <v>1001</v>
       </c>
       <c r="D373" t="s">
         <v>498</v>
@@ -66158,8 +66158,8 @@
       <c r="B374" t="s">
         <v>1435</v>
       </c>
-      <c r="C374" t="s">
-        <v>498</v>
+      <c r="C374">
+        <v>1001</v>
       </c>
       <c r="D374" t="s">
         <v>498</v>
@@ -66322,8 +66322,8 @@
       <c r="B375" t="s">
         <v>1436</v>
       </c>
-      <c r="C375" t="s">
-        <v>498</v>
+      <c r="C375">
+        <v>1001</v>
       </c>
       <c r="D375" t="s">
         <v>498</v>
@@ -66486,8 +66486,8 @@
       <c r="B376" t="s">
         <v>1437</v>
       </c>
-      <c r="C376" t="s">
-        <v>498</v>
+      <c r="C376">
+        <v>1001</v>
       </c>
       <c r="D376" t="s">
         <v>498</v>
@@ -66650,8 +66650,8 @@
       <c r="B377" t="s">
         <v>1438</v>
       </c>
-      <c r="C377" t="s">
-        <v>498</v>
+      <c r="C377">
+        <v>1001</v>
       </c>
       <c r="D377" t="s">
         <v>498</v>
@@ -66814,8 +66814,8 @@
       <c r="B378" t="s">
         <v>1439</v>
       </c>
-      <c r="C378" t="s">
-        <v>498</v>
+      <c r="C378">
+        <v>1001</v>
       </c>
       <c r="D378" t="s">
         <v>498</v>
@@ -66978,8 +66978,8 @@
       <c r="B379" t="s">
         <v>1440</v>
       </c>
-      <c r="C379" t="s">
-        <v>498</v>
+      <c r="C379">
+        <v>1001</v>
       </c>
       <c r="D379" t="s">
         <v>498</v>
@@ -67142,8 +67142,8 @@
       <c r="B380" t="s">
         <v>1441</v>
       </c>
-      <c r="C380" t="s">
-        <v>498</v>
+      <c r="C380">
+        <v>1001</v>
       </c>
       <c r="D380" t="s">
         <v>498</v>
@@ -67306,8 +67306,8 @@
       <c r="B381" t="s">
         <v>1442</v>
       </c>
-      <c r="C381" t="s">
-        <v>498</v>
+      <c r="C381">
+        <v>1001</v>
       </c>
       <c r="D381" t="s">
         <v>498</v>
@@ -67470,8 +67470,8 @@
       <c r="B382" t="s">
         <v>1443</v>
       </c>
-      <c r="C382" t="s">
-        <v>498</v>
+      <c r="C382">
+        <v>1001</v>
       </c>
       <c r="D382" t="s">
         <v>498</v>
@@ -67634,8 +67634,8 @@
       <c r="B383" t="s">
         <v>1444</v>
       </c>
-      <c r="C383" t="s">
-        <v>498</v>
+      <c r="C383">
+        <v>1001</v>
       </c>
       <c r="D383" t="s">
         <v>498</v>
@@ -67798,8 +67798,8 @@
       <c r="B384" t="s">
         <v>1445</v>
       </c>
-      <c r="C384" t="s">
-        <v>498</v>
+      <c r="C384">
+        <v>1001</v>
       </c>
       <c r="D384" t="s">
         <v>498</v>
@@ -67962,8 +67962,8 @@
       <c r="B385" t="s">
         <v>1446</v>
       </c>
-      <c r="C385" t="s">
-        <v>498</v>
+      <c r="C385">
+        <v>1001</v>
       </c>
       <c r="D385" t="s">
         <v>498</v>
@@ -68126,8 +68126,8 @@
       <c r="B386" t="s">
         <v>1447</v>
       </c>
-      <c r="C386" t="s">
-        <v>498</v>
+      <c r="C386">
+        <v>1001</v>
       </c>
       <c r="D386" t="s">
         <v>498</v>
@@ -68290,8 +68290,8 @@
       <c r="B387" t="s">
         <v>1448</v>
       </c>
-      <c r="C387" t="s">
-        <v>498</v>
+      <c r="C387">
+        <v>1001</v>
       </c>
       <c r="D387" t="s">
         <v>498</v>
@@ -68454,8 +68454,8 @@
       <c r="B388" t="s">
         <v>1449</v>
       </c>
-      <c r="C388" t="s">
-        <v>498</v>
+      <c r="C388">
+        <v>1001</v>
       </c>
       <c r="D388" t="s">
         <v>498</v>
@@ -68618,8 +68618,8 @@
       <c r="B389" t="s">
         <v>1450</v>
       </c>
-      <c r="C389" t="s">
-        <v>498</v>
+      <c r="C389">
+        <v>1001</v>
       </c>
       <c r="D389" t="s">
         <v>498</v>
@@ -68782,8 +68782,8 @@
       <c r="B390" t="s">
         <v>1451</v>
       </c>
-      <c r="C390" t="s">
-        <v>498</v>
+      <c r="C390">
+        <v>1001</v>
       </c>
       <c r="D390" t="s">
         <v>498</v>
@@ -68946,8 +68946,8 @@
       <c r="B391" t="s">
         <v>1452</v>
       </c>
-      <c r="C391" t="s">
-        <v>498</v>
+      <c r="C391">
+        <v>1001</v>
       </c>
       <c r="D391" t="s">
         <v>498</v>
@@ -69110,8 +69110,8 @@
       <c r="B392" t="s">
         <v>1453</v>
       </c>
-      <c r="C392" t="s">
-        <v>498</v>
+      <c r="C392">
+        <v>1001</v>
       </c>
       <c r="D392" t="s">
         <v>498</v>
@@ -69274,8 +69274,8 @@
       <c r="B393" t="s">
         <v>1454</v>
       </c>
-      <c r="C393" t="s">
-        <v>498</v>
+      <c r="C393">
+        <v>1001</v>
       </c>
       <c r="D393" t="s">
         <v>498</v>
@@ -69438,8 +69438,8 @@
       <c r="B394" t="s">
         <v>1455</v>
       </c>
-      <c r="C394" t="s">
-        <v>498</v>
+      <c r="C394">
+        <v>1001</v>
       </c>
       <c r="D394" t="s">
         <v>498</v>
@@ -69602,8 +69602,8 @@
       <c r="B395" t="s">
         <v>1456</v>
       </c>
-      <c r="C395" t="s">
-        <v>498</v>
+      <c r="C395">
+        <v>1001</v>
       </c>
       <c r="D395" t="s">
         <v>498</v>
@@ -69766,8 +69766,8 @@
       <c r="B396" t="s">
         <v>1457</v>
       </c>
-      <c r="C396" t="s">
-        <v>498</v>
+      <c r="C396">
+        <v>1001</v>
       </c>
       <c r="D396" t="s">
         <v>498</v>
@@ -69930,8 +69930,8 @@
       <c r="B397" t="s">
         <v>1458</v>
       </c>
-      <c r="C397" t="s">
-        <v>498</v>
+      <c r="C397">
+        <v>1001</v>
       </c>
       <c r="D397" t="s">
         <v>498</v>
@@ -70094,8 +70094,8 @@
       <c r="B398" t="s">
         <v>1459</v>
       </c>
-      <c r="C398" t="s">
-        <v>498</v>
+      <c r="C398">
+        <v>1001</v>
       </c>
       <c r="D398" t="s">
         <v>498</v>
@@ -70258,8 +70258,8 @@
       <c r="B399" t="s">
         <v>1460</v>
       </c>
-      <c r="C399" t="s">
-        <v>498</v>
+      <c r="C399">
+        <v>1001</v>
       </c>
       <c r="D399" t="s">
         <v>498</v>
@@ -70422,8 +70422,8 @@
       <c r="B400" t="s">
         <v>1461</v>
       </c>
-      <c r="C400" t="s">
-        <v>498</v>
+      <c r="C400">
+        <v>1001</v>
       </c>
       <c r="D400" t="s">
         <v>498</v>
@@ -70586,8 +70586,8 @@
       <c r="B401" t="s">
         <v>1462</v>
       </c>
-      <c r="C401" t="s">
-        <v>498</v>
+      <c r="C401">
+        <v>1001</v>
       </c>
       <c r="D401" t="s">
         <v>498</v>
@@ -70750,8 +70750,8 @@
       <c r="B402" t="s">
         <v>1463</v>
       </c>
-      <c r="C402" t="s">
-        <v>498</v>
+      <c r="C402">
+        <v>1001</v>
       </c>
       <c r="D402" t="s">
         <v>498</v>
@@ -70914,8 +70914,8 @@
       <c r="B403" t="s">
         <v>1464</v>
       </c>
-      <c r="C403" t="s">
-        <v>498</v>
+      <c r="C403">
+        <v>1001</v>
       </c>
       <c r="D403" t="s">
         <v>498</v>
@@ -71078,8 +71078,8 @@
       <c r="B404" t="s">
         <v>1465</v>
       </c>
-      <c r="C404" t="s">
-        <v>498</v>
+      <c r="C404">
+        <v>1001</v>
       </c>
       <c r="D404" t="s">
         <v>498</v>
@@ -71242,8 +71242,8 @@
       <c r="B405" t="s">
         <v>1466</v>
       </c>
-      <c r="C405" t="s">
-        <v>498</v>
+      <c r="C405">
+        <v>1001</v>
       </c>
       <c r="D405" t="s">
         <v>498</v>
@@ -71406,8 +71406,8 @@
       <c r="B406" t="s">
         <v>1467</v>
       </c>
-      <c r="C406" t="s">
-        <v>498</v>
+      <c r="C406">
+        <v>1001</v>
       </c>
       <c r="D406" t="s">
         <v>498</v>
@@ -71570,8 +71570,8 @@
       <c r="B407" t="s">
         <v>1468</v>
       </c>
-      <c r="C407" t="s">
-        <v>498</v>
+      <c r="C407">
+        <v>1001</v>
       </c>
       <c r="D407" t="s">
         <v>498</v>
@@ -71734,8 +71734,8 @@
       <c r="B408" t="s">
         <v>1469</v>
       </c>
-      <c r="C408" t="s">
-        <v>498</v>
+      <c r="C408">
+        <v>1001</v>
       </c>
       <c r="D408" t="s">
         <v>498</v>
@@ -71898,8 +71898,8 @@
       <c r="B409" t="s">
         <v>1470</v>
       </c>
-      <c r="C409" t="s">
-        <v>498</v>
+      <c r="C409">
+        <v>1001</v>
       </c>
       <c r="D409" t="s">
         <v>498</v>
@@ -72062,8 +72062,8 @@
       <c r="B410" t="s">
         <v>1471</v>
       </c>
-      <c r="C410" t="s">
-        <v>498</v>
+      <c r="C410">
+        <v>1001</v>
       </c>
       <c r="D410" t="s">
         <v>498</v>
@@ -72226,8 +72226,8 @@
       <c r="B411" t="s">
         <v>1472</v>
       </c>
-      <c r="C411" t="s">
-        <v>498</v>
+      <c r="C411">
+        <v>1001</v>
       </c>
       <c r="D411" t="s">
         <v>498</v>
@@ -72390,8 +72390,8 @@
       <c r="B412" t="s">
         <v>1473</v>
       </c>
-      <c r="C412" t="s">
-        <v>498</v>
+      <c r="C412">
+        <v>1001</v>
       </c>
       <c r="D412" t="s">
         <v>498</v>
@@ -72554,8 +72554,8 @@
       <c r="B413" t="s">
         <v>1474</v>
       </c>
-      <c r="C413" t="s">
-        <v>498</v>
+      <c r="C413">
+        <v>1001</v>
       </c>
       <c r="D413" t="s">
         <v>498</v>
@@ -72718,8 +72718,8 @@
       <c r="B414" t="s">
         <v>1475</v>
       </c>
-      <c r="C414" t="s">
-        <v>498</v>
+      <c r="C414">
+        <v>1001</v>
       </c>
       <c r="D414" t="s">
         <v>498</v>
@@ -72882,8 +72882,8 @@
       <c r="B415" t="s">
         <v>1476</v>
       </c>
-      <c r="C415" t="s">
-        <v>498</v>
+      <c r="C415">
+        <v>1001</v>
       </c>
       <c r="D415" t="s">
         <v>498</v>
@@ -73046,8 +73046,8 @@
       <c r="B416" t="s">
         <v>1477</v>
       </c>
-      <c r="C416" t="s">
-        <v>498</v>
+      <c r="C416">
+        <v>1001</v>
       </c>
       <c r="D416" t="s">
         <v>498</v>
@@ -73210,8 +73210,8 @@
       <c r="B417" t="s">
         <v>1478</v>
       </c>
-      <c r="C417" t="s">
-        <v>498</v>
+      <c r="C417">
+        <v>1001</v>
       </c>
       <c r="D417" t="s">
         <v>498</v>
@@ -73374,8 +73374,8 @@
       <c r="B418" t="s">
         <v>1479</v>
       </c>
-      <c r="C418" t="s">
-        <v>498</v>
+      <c r="C418">
+        <v>1001</v>
       </c>
       <c r="D418" t="s">
         <v>498</v>
@@ -73538,8 +73538,8 @@
       <c r="B419" t="s">
         <v>1480</v>
       </c>
-      <c r="C419" t="s">
-        <v>498</v>
+      <c r="C419">
+        <v>1001</v>
       </c>
       <c r="D419" t="s">
         <v>498</v>
@@ -73702,8 +73702,8 @@
       <c r="B420" t="s">
         <v>1481</v>
       </c>
-      <c r="C420" t="s">
-        <v>498</v>
+      <c r="C420">
+        <v>1001</v>
       </c>
       <c r="D420" t="s">
         <v>498</v>
@@ -73866,8 +73866,8 @@
       <c r="B421" t="s">
         <v>1482</v>
       </c>
-      <c r="C421" t="s">
-        <v>498</v>
+      <c r="C421">
+        <v>1001</v>
       </c>
       <c r="D421" t="s">
         <v>498</v>
@@ -74030,8 +74030,8 @@
       <c r="B422" t="s">
         <v>1483</v>
       </c>
-      <c r="C422" t="s">
-        <v>498</v>
+      <c r="C422">
+        <v>1001</v>
       </c>
       <c r="D422" t="s">
         <v>498</v>
@@ -74194,8 +74194,8 @@
       <c r="B423" t="s">
         <v>1484</v>
       </c>
-      <c r="C423" t="s">
-        <v>498</v>
+      <c r="C423">
+        <v>1001</v>
       </c>
       <c r="D423" t="s">
         <v>498</v>
@@ -74358,8 +74358,8 @@
       <c r="B424" t="s">
         <v>1485</v>
       </c>
-      <c r="C424" t="s">
-        <v>498</v>
+      <c r="C424">
+        <v>1001</v>
       </c>
       <c r="D424" t="s">
         <v>498</v>
@@ -74522,8 +74522,8 @@
       <c r="B425" t="s">
         <v>1486</v>
       </c>
-      <c r="C425" t="s">
-        <v>498</v>
+      <c r="C425">
+        <v>1001</v>
       </c>
       <c r="D425" t="s">
         <v>498</v>
@@ -74686,8 +74686,8 @@
       <c r="B426" t="s">
         <v>1487</v>
       </c>
-      <c r="C426" t="s">
-        <v>498</v>
+      <c r="C426">
+        <v>1001</v>
       </c>
       <c r="D426" t="s">
         <v>498</v>
@@ -74850,8 +74850,8 @@
       <c r="B427" t="s">
         <v>1488</v>
       </c>
-      <c r="C427" t="s">
-        <v>498</v>
+      <c r="C427">
+        <v>1001</v>
       </c>
       <c r="D427" t="s">
         <v>498</v>
@@ -75014,8 +75014,8 @@
       <c r="B428" t="s">
         <v>1489</v>
       </c>
-      <c r="C428" t="s">
-        <v>498</v>
+      <c r="C428">
+        <v>1001</v>
       </c>
       <c r="D428" t="s">
         <v>498</v>
@@ -75178,8 +75178,8 @@
       <c r="B429" t="s">
         <v>1490</v>
       </c>
-      <c r="C429" t="s">
-        <v>498</v>
+      <c r="C429">
+        <v>1001</v>
       </c>
       <c r="D429" t="s">
         <v>498</v>
@@ -75342,8 +75342,8 @@
       <c r="B430" t="s">
         <v>1491</v>
       </c>
-      <c r="C430" t="s">
-        <v>498</v>
+      <c r="C430">
+        <v>1001</v>
       </c>
       <c r="D430" t="s">
         <v>498</v>
@@ -75506,8 +75506,8 @@
       <c r="B431" t="s">
         <v>1492</v>
       </c>
-      <c r="C431" t="s">
-        <v>498</v>
+      <c r="C431">
+        <v>1001</v>
       </c>
       <c r="D431" t="s">
         <v>498</v>
@@ -75670,8 +75670,8 @@
       <c r="B432" t="s">
         <v>1493</v>
       </c>
-      <c r="C432" t="s">
-        <v>498</v>
+      <c r="C432">
+        <v>1001</v>
       </c>
       <c r="D432" t="s">
         <v>498</v>
@@ -75834,8 +75834,8 @@
       <c r="B433" t="s">
         <v>1494</v>
       </c>
-      <c r="C433" t="s">
-        <v>498</v>
+      <c r="C433">
+        <v>1001</v>
       </c>
       <c r="D433" t="s">
         <v>498</v>
@@ -75998,8 +75998,8 @@
       <c r="B434" t="s">
         <v>1495</v>
       </c>
-      <c r="C434" t="s">
-        <v>498</v>
+      <c r="C434">
+        <v>1001</v>
       </c>
       <c r="D434" t="s">
         <v>498</v>
@@ -76162,8 +76162,8 @@
       <c r="B435" t="s">
         <v>1496</v>
       </c>
-      <c r="C435" t="s">
-        <v>498</v>
+      <c r="C435">
+        <v>1001</v>
       </c>
       <c r="D435" t="s">
         <v>498</v>
@@ -76326,8 +76326,8 @@
       <c r="B436" t="s">
         <v>1497</v>
       </c>
-      <c r="C436" t="s">
-        <v>498</v>
+      <c r="C436">
+        <v>1001</v>
       </c>
       <c r="D436" t="s">
         <v>498</v>
@@ -76490,8 +76490,8 @@
       <c r="B437" t="s">
         <v>1498</v>
       </c>
-      <c r="C437" t="s">
-        <v>498</v>
+      <c r="C437">
+        <v>1001</v>
       </c>
       <c r="D437" t="s">
         <v>498</v>
@@ -76654,8 +76654,8 @@
       <c r="B438" t="s">
         <v>1499</v>
       </c>
-      <c r="C438" t="s">
-        <v>498</v>
+      <c r="C438">
+        <v>1001</v>
       </c>
       <c r="D438" t="s">
         <v>498</v>
@@ -76818,8 +76818,8 @@
       <c r="B439" t="s">
         <v>1500</v>
       </c>
-      <c r="C439" t="s">
-        <v>498</v>
+      <c r="C439">
+        <v>1001</v>
       </c>
       <c r="D439" t="s">
         <v>498</v>
@@ -76982,8 +76982,8 @@
       <c r="B440" t="s">
         <v>1501</v>
       </c>
-      <c r="C440" t="s">
-        <v>498</v>
+      <c r="C440">
+        <v>1001</v>
       </c>
       <c r="D440" t="s">
         <v>498</v>
@@ -77146,8 +77146,8 @@
       <c r="B441" t="s">
         <v>1502</v>
       </c>
-      <c r="C441" t="s">
-        <v>498</v>
+      <c r="C441">
+        <v>1001</v>
       </c>
       <c r="D441" t="s">
         <v>498</v>
@@ -77310,8 +77310,8 @@
       <c r="B442" t="s">
         <v>1503</v>
       </c>
-      <c r="C442" t="s">
-        <v>498</v>
+      <c r="C442">
+        <v>1001</v>
       </c>
       <c r="D442" t="s">
         <v>498</v>
@@ -77474,8 +77474,8 @@
       <c r="B443" t="s">
         <v>1504</v>
       </c>
-      <c r="C443" t="s">
-        <v>498</v>
+      <c r="C443">
+        <v>1001</v>
       </c>
       <c r="D443" t="s">
         <v>498</v>
@@ -77638,8 +77638,8 @@
       <c r="B444" t="s">
         <v>1505</v>
       </c>
-      <c r="C444" t="s">
-        <v>498</v>
+      <c r="C444">
+        <v>1001</v>
       </c>
       <c r="D444" t="s">
         <v>498</v>
@@ -77802,8 +77802,8 @@
       <c r="B445" t="s">
         <v>1506</v>
       </c>
-      <c r="C445" t="s">
-        <v>498</v>
+      <c r="C445">
+        <v>1001</v>
       </c>
       <c r="D445" t="s">
         <v>498</v>
@@ -77966,8 +77966,8 @@
       <c r="B446" t="s">
         <v>1507</v>
       </c>
-      <c r="C446" t="s">
-        <v>498</v>
+      <c r="C446">
+        <v>1001</v>
       </c>
       <c r="D446" t="s">
         <v>498</v>
@@ -78130,8 +78130,8 @@
       <c r="B447" t="s">
         <v>1508</v>
       </c>
-      <c r="C447" t="s">
-        <v>498</v>
+      <c r="C447">
+        <v>1001</v>
       </c>
       <c r="D447" t="s">
         <v>498</v>
@@ -78294,8 +78294,8 @@
       <c r="B448" t="s">
         <v>1509</v>
       </c>
-      <c r="C448" t="s">
-        <v>498</v>
+      <c r="C448">
+        <v>1001</v>
       </c>
       <c r="D448" t="s">
         <v>498</v>
@@ -78458,8 +78458,8 @@
       <c r="B449" t="s">
         <v>1510</v>
       </c>
-      <c r="C449" t="s">
-        <v>498</v>
+      <c r="C449">
+        <v>1001</v>
       </c>
       <c r="D449" t="s">
         <v>498</v>
@@ -78622,8 +78622,8 @@
       <c r="B450" t="s">
         <v>1511</v>
       </c>
-      <c r="C450" t="s">
-        <v>498</v>
+      <c r="C450">
+        <v>1001</v>
       </c>
       <c r="D450" t="s">
         <v>498</v>
@@ -78786,8 +78786,8 @@
       <c r="B451" t="s">
         <v>1512</v>
       </c>
-      <c r="C451" t="s">
-        <v>498</v>
+      <c r="C451">
+        <v>1001</v>
       </c>
       <c r="D451" t="s">
         <v>498</v>
@@ -78950,8 +78950,8 @@
       <c r="B452" t="s">
         <v>1513</v>
       </c>
-      <c r="C452" t="s">
-        <v>498</v>
+      <c r="C452">
+        <v>1001</v>
       </c>
       <c r="D452" t="s">
         <v>498</v>
@@ -79114,8 +79114,8 @@
       <c r="B453" t="s">
         <v>1514</v>
       </c>
-      <c r="C453" t="s">
-        <v>498</v>
+      <c r="C453">
+        <v>1001</v>
       </c>
       <c r="D453" t="s">
         <v>498</v>
@@ -79278,8 +79278,8 @@
       <c r="B454" t="s">
         <v>1515</v>
       </c>
-      <c r="C454" t="s">
-        <v>498</v>
+      <c r="C454">
+        <v>1001</v>
       </c>
       <c r="D454" t="s">
         <v>498</v>
@@ -79442,8 +79442,8 @@
       <c r="B455" t="s">
         <v>1516</v>
       </c>
-      <c r="C455" t="s">
-        <v>498</v>
+      <c r="C455">
+        <v>1001</v>
       </c>
       <c r="D455" t="s">
         <v>498</v>
@@ -79606,8 +79606,8 @@
       <c r="B456" t="s">
         <v>1517</v>
       </c>
-      <c r="C456" t="s">
-        <v>498</v>
+      <c r="C456">
+        <v>1001</v>
       </c>
       <c r="D456" t="s">
         <v>498</v>
@@ -79770,8 +79770,8 @@
       <c r="B457" t="s">
         <v>1518</v>
       </c>
-      <c r="C457" t="s">
-        <v>498</v>
+      <c r="C457">
+        <v>1001</v>
       </c>
       <c r="D457" t="s">
         <v>498</v>
@@ -79934,8 +79934,8 @@
       <c r="B458" t="s">
         <v>1519</v>
       </c>
-      <c r="C458" t="s">
-        <v>498</v>
+      <c r="C458">
+        <v>1001</v>
       </c>
       <c r="D458" t="s">
         <v>498</v>
@@ -80098,8 +80098,8 @@
       <c r="B459" t="s">
         <v>1520</v>
       </c>
-      <c r="C459" t="s">
-        <v>498</v>
+      <c r="C459">
+        <v>1001</v>
       </c>
       <c r="D459" t="s">
         <v>498</v>
@@ -80262,8 +80262,8 @@
       <c r="B460" t="s">
         <v>1521</v>
       </c>
-      <c r="C460" t="s">
-        <v>498</v>
+      <c r="C460">
+        <v>1001</v>
       </c>
       <c r="D460" t="s">
         <v>498</v>
@@ -80426,8 +80426,8 @@
       <c r="B461" t="s">
         <v>1522</v>
       </c>
-      <c r="C461" t="s">
-        <v>498</v>
+      <c r="C461">
+        <v>1001</v>
       </c>
       <c r="D461" t="s">
         <v>498</v>
@@ -80590,8 +80590,8 @@
       <c r="B462" t="s">
         <v>1523</v>
       </c>
-      <c r="C462" t="s">
-        <v>498</v>
+      <c r="C462">
+        <v>1001</v>
       </c>
       <c r="D462" t="s">
         <v>498</v>
@@ -80754,8 +80754,8 @@
       <c r="B463" t="s">
         <v>1524</v>
       </c>
-      <c r="C463" t="s">
-        <v>498</v>
+      <c r="C463">
+        <v>1001</v>
       </c>
       <c r="D463" t="s">
         <v>498</v>
@@ -80918,8 +80918,8 @@
       <c r="B464" t="s">
         <v>1525</v>
       </c>
-      <c r="C464" t="s">
-        <v>498</v>
+      <c r="C464">
+        <v>1001</v>
       </c>
       <c r="D464" t="s">
         <v>498</v>
@@ -81082,8 +81082,8 @@
       <c r="B465" t="s">
         <v>1526</v>
       </c>
-      <c r="C465" t="s">
-        <v>498</v>
+      <c r="C465">
+        <v>1001</v>
       </c>
       <c r="D465" t="s">
         <v>498</v>
@@ -81246,8 +81246,8 @@
       <c r="B466" t="s">
         <v>1527</v>
       </c>
-      <c r="C466" t="s">
-        <v>498</v>
+      <c r="C466">
+        <v>1001</v>
       </c>
       <c r="D466" t="s">
         <v>498</v>
@@ -81410,8 +81410,8 @@
       <c r="B467" t="s">
         <v>1528</v>
       </c>
-      <c r="C467" t="s">
-        <v>498</v>
+      <c r="C467">
+        <v>1001</v>
       </c>
       <c r="D467" t="s">
         <v>498</v>
@@ -81574,8 +81574,8 @@
       <c r="B468" t="s">
         <v>1529</v>
       </c>
-      <c r="C468" t="s">
-        <v>498</v>
+      <c r="C468">
+        <v>1001</v>
       </c>
       <c r="D468" t="s">
         <v>498</v>
@@ -81738,8 +81738,8 @@
       <c r="B469" t="s">
         <v>1530</v>
       </c>
-      <c r="C469" t="s">
-        <v>498</v>
+      <c r="C469">
+        <v>1001</v>
       </c>
       <c r="D469" t="s">
         <v>498</v>
@@ -81902,8 +81902,8 @@
       <c r="B470" t="s">
         <v>1531</v>
       </c>
-      <c r="C470" t="s">
-        <v>498</v>
+      <c r="C470">
+        <v>1001</v>
       </c>
       <c r="D470" t="s">
         <v>498</v>
@@ -82066,8 +82066,8 @@
       <c r="B471" t="s">
         <v>1532</v>
       </c>
-      <c r="C471" t="s">
-        <v>498</v>
+      <c r="C471">
+        <v>1001</v>
       </c>
       <c r="D471" t="s">
         <v>498</v>
@@ -82230,8 +82230,8 @@
       <c r="B472" t="s">
         <v>1533</v>
       </c>
-      <c r="C472" t="s">
-        <v>498</v>
+      <c r="C472">
+        <v>1001</v>
       </c>
       <c r="D472" t="s">
         <v>498</v>
@@ -82394,8 +82394,8 @@
       <c r="B473" t="s">
         <v>1534</v>
       </c>
-      <c r="C473" t="s">
-        <v>498</v>
+      <c r="C473">
+        <v>1001</v>
       </c>
       <c r="D473" t="s">
         <v>498</v>
@@ -82558,8 +82558,8 @@
       <c r="B474" t="s">
         <v>1535</v>
       </c>
-      <c r="C474" t="s">
-        <v>498</v>
+      <c r="C474">
+        <v>1001</v>
       </c>
       <c r="D474" t="s">
         <v>498</v>
@@ -82722,8 +82722,8 @@
       <c r="B475" t="s">
         <v>1536</v>
       </c>
-      <c r="C475" t="s">
-        <v>498</v>
+      <c r="C475">
+        <v>1001</v>
       </c>
       <c r="D475" t="s">
         <v>498</v>
@@ -82886,8 +82886,8 @@
       <c r="B476" t="s">
         <v>1537</v>
       </c>
-      <c r="C476" t="s">
-        <v>498</v>
+      <c r="C476">
+        <v>1001</v>
       </c>
       <c r="D476" t="s">
         <v>498</v>
@@ -83050,8 +83050,8 @@
       <c r="B477" t="s">
         <v>1538</v>
       </c>
-      <c r="C477" t="s">
-        <v>498</v>
+      <c r="C477">
+        <v>1001</v>
       </c>
       <c r="D477" t="s">
         <v>498</v>
@@ -83214,8 +83214,8 @@
       <c r="B478" t="s">
         <v>1539</v>
       </c>
-      <c r="C478" t="s">
-        <v>498</v>
+      <c r="C478">
+        <v>1001</v>
       </c>
       <c r="D478" t="s">
         <v>498</v>
@@ -83378,8 +83378,8 @@
       <c r="B479" t="s">
         <v>1540</v>
       </c>
-      <c r="C479" t="s">
-        <v>498</v>
+      <c r="C479">
+        <v>1001</v>
       </c>
       <c r="D479" t="s">
         <v>498</v>
@@ -83542,8 +83542,8 @@
       <c r="B480" t="s">
         <v>1541</v>
       </c>
-      <c r="C480" t="s">
-        <v>498</v>
+      <c r="C480">
+        <v>1001</v>
       </c>
       <c r="D480" t="s">
         <v>498</v>
@@ -83706,8 +83706,8 @@
       <c r="B481" t="s">
         <v>1542</v>
       </c>
-      <c r="C481" t="s">
-        <v>498</v>
+      <c r="C481">
+        <v>1001</v>
       </c>
       <c r="D481" t="s">
         <v>498</v>
@@ -83870,8 +83870,8 @@
       <c r="B482" t="s">
         <v>1543</v>
       </c>
-      <c r="C482" t="s">
-        <v>498</v>
+      <c r="C482">
+        <v>1001</v>
       </c>
       <c r="D482" t="s">
         <v>498</v>
@@ -84034,8 +84034,8 @@
       <c r="B483" t="s">
         <v>1544</v>
       </c>
-      <c r="C483" t="s">
-        <v>498</v>
+      <c r="C483">
+        <v>1001</v>
       </c>
       <c r="D483" t="s">
         <v>498</v>
@@ -84198,8 +84198,8 @@
       <c r="B484" t="s">
         <v>1545</v>
       </c>
-      <c r="C484" t="s">
-        <v>498</v>
+      <c r="C484">
+        <v>1001</v>
       </c>
       <c r="D484" t="s">
         <v>498</v>
@@ -84362,8 +84362,8 @@
       <c r="B485" t="s">
         <v>1546</v>
       </c>
-      <c r="C485" t="s">
-        <v>498</v>
+      <c r="C485">
+        <v>1001</v>
       </c>
       <c r="D485" t="s">
         <v>498</v>
@@ -84526,8 +84526,8 @@
       <c r="B486" t="s">
         <v>1547</v>
       </c>
-      <c r="C486" t="s">
-        <v>498</v>
+      <c r="C486">
+        <v>1001</v>
       </c>
       <c r="D486" t="s">
         <v>498</v>
@@ -84690,8 +84690,8 @@
       <c r="B487" t="s">
         <v>1548</v>
       </c>
-      <c r="C487" t="s">
-        <v>498</v>
+      <c r="C487">
+        <v>1001</v>
       </c>
       <c r="D487" t="s">
         <v>498</v>
@@ -84854,8 +84854,8 @@
       <c r="B488" t="s">
         <v>1549</v>
       </c>
-      <c r="C488" t="s">
-        <v>498</v>
+      <c r="C488">
+        <v>1001</v>
       </c>
       <c r="D488" t="s">
         <v>498</v>
@@ -85018,8 +85018,8 @@
       <c r="B489" t="s">
         <v>1550</v>
       </c>
-      <c r="C489" t="s">
-        <v>498</v>
+      <c r="C489">
+        <v>1001</v>
       </c>
       <c r="D489" t="s">
         <v>498</v>
@@ -85182,8 +85182,8 @@
       <c r="B490" t="s">
         <v>1551</v>
       </c>
-      <c r="C490" t="s">
-        <v>498</v>
+      <c r="C490">
+        <v>1001</v>
       </c>
       <c r="D490" t="s">
         <v>498</v>
@@ -85346,8 +85346,8 @@
       <c r="B491" t="s">
         <v>1552</v>
       </c>
-      <c r="C491" t="s">
-        <v>498</v>
+      <c r="C491">
+        <v>1001</v>
       </c>
       <c r="D491" t="s">
         <v>498</v>
@@ -85510,8 +85510,8 @@
       <c r="B492" t="s">
         <v>1553</v>
       </c>
-      <c r="C492" t="s">
-        <v>498</v>
+      <c r="C492">
+        <v>1001</v>
       </c>
       <c r="D492" t="s">
         <v>498</v>
@@ -85674,8 +85674,8 @@
       <c r="B493" t="s">
         <v>1554</v>
       </c>
-      <c r="C493" t="s">
-        <v>498</v>
+      <c r="C493">
+        <v>1001</v>
       </c>
       <c r="D493" t="s">
         <v>498</v>
@@ -85838,8 +85838,8 @@
       <c r="B494" t="s">
         <v>1555</v>
       </c>
-      <c r="C494" t="s">
-        <v>498</v>
+      <c r="C494">
+        <v>1001</v>
       </c>
       <c r="D494" t="s">
         <v>498</v>
@@ -86002,8 +86002,8 @@
       <c r="B495" t="s">
         <v>1556</v>
       </c>
-      <c r="C495" t="s">
-        <v>498</v>
+      <c r="C495">
+        <v>1001</v>
       </c>
       <c r="D495" t="s">
         <v>498</v>
@@ -86166,8 +86166,8 @@
       <c r="B496" t="s">
         <v>1557</v>
       </c>
-      <c r="C496" t="s">
-        <v>498</v>
+      <c r="C496">
+        <v>1001</v>
       </c>
       <c r="D496" t="s">
         <v>498</v>
@@ -86330,8 +86330,8 @@
       <c r="B497" t="s">
         <v>1558</v>
       </c>
-      <c r="C497" t="s">
-        <v>498</v>
+      <c r="C497">
+        <v>1001</v>
       </c>
       <c r="D497" t="s">
         <v>498</v>
@@ -86494,8 +86494,8 @@
       <c r="B498" t="s">
         <v>1559</v>
       </c>
-      <c r="C498" t="s">
-        <v>498</v>
+      <c r="C498">
+        <v>1001</v>
       </c>
       <c r="D498" t="s">
         <v>498</v>
@@ -86655,8 +86655,8 @@
       <c r="B499" t="s">
         <v>1560</v>
       </c>
-      <c r="C499" t="s">
-        <v>498</v>
+      <c r="C499">
+        <v>1001</v>
       </c>
       <c r="D499" t="s">
         <v>498</v>
@@ -86678,8 +86678,8 @@
       <c r="B500" t="s">
         <v>1561</v>
       </c>
-      <c r="C500" t="s">
-        <v>498</v>
+      <c r="C500">
+        <v>1001</v>
       </c>
       <c r="D500" t="s">
         <v>498</v>
